--- a/WIP/Deliverable/Report5/VMN_System Test Case_TestRound1_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report5/VMN_System Test Case_TestRound1_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Documents/201601JS01/WIP/Deliverable/Report5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="840" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="983">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1646,9 +1646,6 @@
   </si>
   <si>
     <t>Remedy article</t>
-  </si>
-  <si>
-    <t>22/02/2016</t>
   </si>
   <si>
     <t>This test cases were created to test Herbal medine store (HMS) module.</t>
@@ -6080,7 +6077,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -7880,6 +7877,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8006,15 +8012,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="6" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="6" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -8476,8 +8473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8495,13 +8492,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="244" t="s">
+      <c r="C2" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
@@ -8512,11 +8509,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -8528,11 +8525,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="245" t="s">
+      <c r="C5" s="248" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -8541,27 +8538,27 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="246" t="s">
+      <c r="B6" s="249" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="247" t="str">
+      <c r="C6" s="250" t="str">
         <f>C5&amp;"_"&amp;"System Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Case_v1.0</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
+      <c r="D6" s="250"/>
+      <c r="E6" s="250"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="72">
-        <v>42422</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="246"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="247"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -8611,7 +8608,7 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="73">
-        <v>42422</v>
+        <v>42445</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>45</v>
@@ -8972,14 +8969,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="255" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="257"/>
+      <c r="B2" s="258" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -9230,14 +9227,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="258" t="s">
-        <v>358</v>
-      </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
+      <c r="B3" s="261" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -9488,14 +9485,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="258" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="260"/>
+      <c r="B4" s="261" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -9753,11 +9750,11 @@
       <c r="D5" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="262"/>
-      <c r="G5" s="263"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -10021,12 +10018,12 @@
         <f>COUNTIF(F12:G105,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="264">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A105)*2</f>
         <v>112</v>
       </c>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -11307,7 +11304,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="231"/>
       <c r="B11" s="231" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="231"/>
       <c r="D11" s="231"/>
@@ -11562,13 +11559,13 @@
         <v>[Mod Module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E12" s="199"/>
       <c r="F12" s="97" t="s">
@@ -11578,7 +11575,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I12" s="200"/>
       <c r="J12" s="90"/>
@@ -11589,13 +11586,13 @@
         <v>[Mod Module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E13" s="199"/>
       <c r="F13" s="97" t="s">
@@ -11605,7 +11602,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I13" s="200"/>
       <c r="J13" s="90"/>
@@ -11616,13 +11613,13 @@
         <v>[Mod Module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E14" s="201"/>
       <c r="F14" s="97" t="s">
@@ -11632,7 +11629,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I14" s="202"/>
       <c r="J14" s="90"/>
@@ -11643,13 +11640,13 @@
         <v>[Mod Module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E15" s="201"/>
       <c r="F15" s="97" t="s">
@@ -11659,7 +11656,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I15" s="202"/>
       <c r="J15" s="90"/>
@@ -11670,13 +11667,13 @@
         <v>[Mod Module-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E16" s="201"/>
       <c r="F16" s="97" t="s">
@@ -11686,7 +11683,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I16" s="202"/>
       <c r="J16" s="90"/>
@@ -11697,13 +11694,13 @@
         <v>[Mod Module-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E17" s="201"/>
       <c r="F17" s="97" t="s">
@@ -11713,7 +11710,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I17" s="202"/>
       <c r="J17" s="90"/>
@@ -11724,13 +11721,13 @@
         <v>[Mod Module-8]</v>
       </c>
       <c r="B18" s="97" t="s">
+        <v>573</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="D18" s="97" t="s">
         <v>574</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>810</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>575</v>
       </c>
       <c r="E18" s="201"/>
       <c r="F18" s="97" t="s">
@@ -11740,7 +11737,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I18" s="202"/>
       <c r="J18" s="90"/>
@@ -11751,13 +11748,13 @@
         <v>[Mod Module-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E19" s="201"/>
       <c r="F19" s="97" t="s">
@@ -11767,7 +11764,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I19" s="202"/>
       <c r="J19" s="90"/>
@@ -11778,13 +11775,13 @@
         <v>[Mod Module-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E20" s="201"/>
       <c r="F20" s="97" t="s">
@@ -11794,7 +11791,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I20" s="202"/>
       <c r="J20" s="90"/>
@@ -11805,13 +11802,13 @@
         <v>[Mod Module-11]</v>
       </c>
       <c r="B21" s="97" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>812</v>
+      </c>
+      <c r="D21" s="97" t="s">
         <v>523</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>813</v>
-      </c>
-      <c r="D21" s="97" t="s">
-        <v>524</v>
       </c>
       <c r="E21" s="201"/>
       <c r="F21" s="97" t="s">
@@ -11821,7 +11818,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I21" s="202"/>
       <c r="J21" s="90"/>
@@ -11832,13 +11829,13 @@
         <v>[Mod Module-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E22" s="201"/>
       <c r="F22" s="97" t="s">
@@ -11848,7 +11845,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I22" s="202"/>
       <c r="J22" s="90"/>
@@ -11859,13 +11856,13 @@
         <v>[Mod Module-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E23" s="201"/>
       <c r="F23" s="97" t="s">
@@ -11875,7 +11872,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I23" s="203"/>
       <c r="J23" s="90"/>
@@ -11883,7 +11880,7 @@
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="235"/>
       <c r="B24" s="234" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C24" s="235"/>
       <c r="D24" s="235"/>
@@ -11900,13 +11897,13 @@
         <v>[Mod Module-15]</v>
       </c>
       <c r="B25" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="C25" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="C25" s="97" t="s">
-        <v>579</v>
-      </c>
       <c r="D25" s="97" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E25" s="204"/>
       <c r="F25" s="97" t="s">
@@ -11916,7 +11913,7 @@
         <v>22</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I25" s="203"/>
       <c r="J25" s="90"/>
@@ -11927,13 +11924,13 @@
         <v>[Mod Module-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E26" s="204"/>
       <c r="F26" s="97" t="s">
@@ -11943,7 +11940,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I26" s="203"/>
       <c r="J26" s="90"/>
@@ -11951,7 +11948,7 @@
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="235"/>
       <c r="B27" s="234" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C27" s="235"/>
       <c r="D27" s="235"/>
@@ -11968,13 +11965,13 @@
         <v>[Mod Module-18]</v>
       </c>
       <c r="B28" s="97" t="s">
+        <v>580</v>
+      </c>
+      <c r="C28" s="97" t="s">
         <v>581</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="D28" s="205" t="s">
         <v>582</v>
-      </c>
-      <c r="D28" s="205" t="s">
-        <v>583</v>
       </c>
       <c r="E28" s="204"/>
       <c r="F28" s="97" t="s">
@@ -11984,7 +11981,7 @@
         <v>22</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I28" s="203"/>
       <c r="J28" s="90"/>
@@ -11992,7 +11989,7 @@
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="235"/>
       <c r="B29" s="234" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C29" s="235"/>
       <c r="D29" s="235"/>
@@ -12009,13 +12006,13 @@
         <v>[Mod Module-20]</v>
       </c>
       <c r="B30" s="232" t="s">
+        <v>583</v>
+      </c>
+      <c r="C30" s="232" t="s">
         <v>584</v>
       </c>
-      <c r="C30" s="232" t="s">
-        <v>585</v>
-      </c>
       <c r="D30" s="232" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E30" s="204"/>
       <c r="F30" s="97" t="s">
@@ -12025,7 +12022,7 @@
         <v>22</v>
       </c>
       <c r="H30" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I30" s="203"/>
       <c r="J30" s="90"/>
@@ -12036,13 +12033,13 @@
         <v>[Mod Module-21]</v>
       </c>
       <c r="B31" s="232" t="s">
+        <v>603</v>
+      </c>
+      <c r="C31" s="232" t="s">
         <v>604</v>
       </c>
-      <c r="C31" s="232" t="s">
+      <c r="D31" s="232" t="s">
         <v>605</v>
-      </c>
-      <c r="D31" s="232" t="s">
-        <v>606</v>
       </c>
       <c r="E31" s="204"/>
       <c r="F31" s="97" t="s">
@@ -12052,7 +12049,7 @@
         <v>24</v>
       </c>
       <c r="H31" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I31" s="203"/>
       <c r="J31" s="90"/>
@@ -12063,13 +12060,13 @@
         <v>[Mod Module-22]</v>
       </c>
       <c r="B32" s="232" t="s">
+        <v>606</v>
+      </c>
+      <c r="C32" s="232" t="s">
         <v>607</v>
       </c>
-      <c r="C32" s="232" t="s">
+      <c r="D32" s="232" t="s">
         <v>608</v>
-      </c>
-      <c r="D32" s="232" t="s">
-        <v>609</v>
       </c>
       <c r="E32" s="204"/>
       <c r="F32" s="97" t="s">
@@ -12079,7 +12076,7 @@
         <v>24</v>
       </c>
       <c r="H32" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I32" s="203"/>
       <c r="J32" s="90"/>
@@ -12090,13 +12087,13 @@
         <v>[Mod Module-23]</v>
       </c>
       <c r="B33" s="232" t="s">
+        <v>609</v>
+      </c>
+      <c r="C33" s="232" t="s">
         <v>610</v>
       </c>
-      <c r="C33" s="232" t="s">
-        <v>611</v>
-      </c>
       <c r="D33" s="232" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E33" s="204"/>
       <c r="F33" s="97" t="s">
@@ -12106,7 +12103,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I33" s="203"/>
       <c r="J33" s="90"/>
@@ -12117,13 +12114,13 @@
         <v>[Mod Module-24]</v>
       </c>
       <c r="B34" s="232" t="s">
+        <v>620</v>
+      </c>
+      <c r="C34" s="232" t="s">
         <v>621</v>
       </c>
-      <c r="C34" s="232" t="s">
+      <c r="D34" s="232" t="s">
         <v>622</v>
-      </c>
-      <c r="D34" s="232" t="s">
-        <v>623</v>
       </c>
       <c r="E34" s="204"/>
       <c r="F34" s="97" t="s">
@@ -12133,7 +12130,7 @@
         <v>24</v>
       </c>
       <c r="H34" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I34" s="203"/>
       <c r="J34" s="90"/>
@@ -12144,13 +12141,13 @@
         <v>[Mod Module-25]</v>
       </c>
       <c r="B35" s="232" t="s">
+        <v>611</v>
+      </c>
+      <c r="C35" s="232" t="s">
+        <v>613</v>
+      </c>
+      <c r="D35" s="232" t="s">
         <v>612</v>
-      </c>
-      <c r="C35" s="232" t="s">
-        <v>614</v>
-      </c>
-      <c r="D35" s="232" t="s">
-        <v>613</v>
       </c>
       <c r="E35" s="204"/>
       <c r="F35" s="97" t="s">
@@ -12160,7 +12157,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I35" s="203"/>
       <c r="J35" s="90"/>
@@ -12171,13 +12168,13 @@
         <v>[Mod Module-26]</v>
       </c>
       <c r="B36" s="232" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" s="232" t="s">
         <v>615</v>
       </c>
-      <c r="C36" s="232" t="s">
+      <c r="D36" s="97" t="s">
         <v>616</v>
-      </c>
-      <c r="D36" s="97" t="s">
-        <v>617</v>
       </c>
       <c r="E36" s="236"/>
       <c r="F36" s="97" t="s">
@@ -12187,7 +12184,7 @@
         <v>24</v>
       </c>
       <c r="H36" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I36" s="203"/>
       <c r="J36" s="90"/>
@@ -12198,13 +12195,13 @@
         <v>[Mod Module-27]</v>
       </c>
       <c r="B37" s="232" t="s">
+        <v>617</v>
+      </c>
+      <c r="C37" s="232" t="s">
         <v>618</v>
       </c>
-      <c r="C37" s="232" t="s">
+      <c r="D37" s="97" t="s">
         <v>619</v>
-      </c>
-      <c r="D37" s="97" t="s">
-        <v>620</v>
       </c>
       <c r="E37" s="151"/>
       <c r="F37" s="97" t="s">
@@ -12214,7 +12211,7 @@
         <v>24</v>
       </c>
       <c r="H37" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I37" s="151"/>
       <c r="J37" s="90"/>
@@ -12225,13 +12222,13 @@
         <v>[Mod Module-28]</v>
       </c>
       <c r="B38" s="232" t="s">
+        <v>624</v>
+      </c>
+      <c r="C38" s="232" t="s">
         <v>625</v>
       </c>
-      <c r="C38" s="232" t="s">
+      <c r="D38" s="97" t="s">
         <v>626</v>
-      </c>
-      <c r="D38" s="97" t="s">
-        <v>627</v>
       </c>
       <c r="E38" s="236"/>
       <c r="F38" s="97" t="s">
@@ -12241,7 +12238,7 @@
         <v>24</v>
       </c>
       <c r="H38" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I38" s="203"/>
       <c r="J38" s="90"/>
@@ -12252,13 +12249,13 @@
         <v>[Mod Module-29]</v>
       </c>
       <c r="B39" s="97" t="s">
+        <v>627</v>
+      </c>
+      <c r="C39" s="97" t="s">
         <v>628</v>
       </c>
-      <c r="C39" s="97" t="s">
+      <c r="D39" s="138" t="s">
         <v>629</v>
-      </c>
-      <c r="D39" s="138" t="s">
-        <v>630</v>
       </c>
       <c r="E39" s="236"/>
       <c r="F39" s="97" t="s">
@@ -12268,7 +12265,7 @@
         <v>24</v>
       </c>
       <c r="H39" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I39" s="203"/>
       <c r="J39" s="90"/>
@@ -12279,13 +12276,13 @@
         <v>[Mod Module-30]</v>
       </c>
       <c r="B40" s="97" t="s">
+        <v>633</v>
+      </c>
+      <c r="C40" s="97" t="s">
         <v>634</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="D40" s="205" t="s">
         <v>635</v>
-      </c>
-      <c r="D40" s="205" t="s">
-        <v>636</v>
       </c>
       <c r="E40" s="204"/>
       <c r="F40" s="97" t="s">
@@ -12295,7 +12292,7 @@
         <v>24</v>
       </c>
       <c r="H40" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I40" s="203"/>
       <c r="J40" s="90"/>
@@ -12306,13 +12303,13 @@
         <v>[Mod Module-31]</v>
       </c>
       <c r="B41" s="97" t="s">
+        <v>636</v>
+      </c>
+      <c r="C41" s="97" t="s">
         <v>637</v>
       </c>
-      <c r="C41" s="97" t="s">
+      <c r="D41" s="205" t="s">
         <v>638</v>
-      </c>
-      <c r="D41" s="205" t="s">
-        <v>639</v>
       </c>
       <c r="E41" s="204"/>
       <c r="F41" s="97" t="s">
@@ -12322,7 +12319,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I41" s="203"/>
       <c r="J41" s="90"/>
@@ -12333,13 +12330,13 @@
         <v>[Mod Module-32]</v>
       </c>
       <c r="B42" s="97" t="s">
+        <v>630</v>
+      </c>
+      <c r="C42" s="97" t="s">
         <v>631</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="D42" s="205" t="s">
         <v>632</v>
-      </c>
-      <c r="D42" s="205" t="s">
-        <v>633</v>
       </c>
       <c r="E42" s="204"/>
       <c r="F42" s="97" t="s">
@@ -12349,7 +12346,7 @@
         <v>24</v>
       </c>
       <c r="H42" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I42" s="203"/>
       <c r="J42" s="90"/>
@@ -12360,13 +12357,13 @@
         <v>[Mod Module-33]</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D43" s="205" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E43" s="204"/>
       <c r="F43" s="97" t="s">
@@ -12376,7 +12373,7 @@
         <v>24</v>
       </c>
       <c r="H43" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I43" s="203"/>
       <c r="J43" s="90"/>
@@ -12387,13 +12384,13 @@
         <v>[Mod Module-34]</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D44" s="205" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E44" s="207"/>
       <c r="F44" s="97" t="s">
@@ -12403,7 +12400,7 @@
         <v>24</v>
       </c>
       <c r="H44" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I44" s="208"/>
       <c r="J44" s="90"/>
@@ -12411,7 +12408,7 @@
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="188"/>
       <c r="B45" s="187" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C45" s="188"/>
       <c r="D45" s="188"/>
@@ -12428,13 +12425,13 @@
         <v>[Mod Module-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C46" s="97" t="s">
+        <v>648</v>
+      </c>
+      <c r="D46" s="205" t="s">
         <v>649</v>
-      </c>
-      <c r="D46" s="205" t="s">
-        <v>650</v>
       </c>
       <c r="E46" s="204"/>
       <c r="F46" s="97" t="s">
@@ -12444,7 +12441,7 @@
         <v>22</v>
       </c>
       <c r="H46" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I46" s="203"/>
       <c r="J46" s="90"/>
@@ -12455,13 +12452,13 @@
         <v>[Mod Module-37]</v>
       </c>
       <c r="B47" s="97" t="s">
+        <v>647</v>
+      </c>
+      <c r="C47" s="97" t="s">
         <v>648</v>
       </c>
-      <c r="C47" s="97" t="s">
+      <c r="D47" s="205" t="s">
         <v>649</v>
-      </c>
-      <c r="D47" s="205" t="s">
-        <v>650</v>
       </c>
       <c r="E47" s="204"/>
       <c r="F47" s="97" t="s">
@@ -12471,7 +12468,7 @@
         <v>22</v>
       </c>
       <c r="H47" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I47" s="203"/>
       <c r="J47" s="90"/>
@@ -12482,13 +12479,13 @@
         <v>[Mod Module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D48" s="205" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E48" s="204"/>
       <c r="F48" s="97" t="s">
@@ -12498,7 +12495,7 @@
         <v>22</v>
       </c>
       <c r="H48" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I48" s="203"/>
       <c r="J48" s="90"/>
@@ -12509,13 +12506,13 @@
         <v>[Mod Module-39]</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D49" s="205" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E49" s="204"/>
       <c r="F49" s="97" t="s">
@@ -12525,7 +12522,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I49" s="203"/>
     </row>
@@ -12535,13 +12532,13 @@
         <v>[Mod Module-40]</v>
       </c>
       <c r="B50" s="97" t="s">
+        <v>656</v>
+      </c>
+      <c r="C50" s="97" t="s">
         <v>657</v>
       </c>
-      <c r="C50" s="97" t="s">
+      <c r="D50" s="205" t="s">
         <v>658</v>
-      </c>
-      <c r="D50" s="205" t="s">
-        <v>659</v>
       </c>
       <c r="E50" s="204"/>
       <c r="F50" s="97" t="s">
@@ -12551,7 +12548,7 @@
         <v>22</v>
       </c>
       <c r="H50" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I50" s="203"/>
     </row>
@@ -12561,13 +12558,13 @@
         <v>[Mod Module-41]</v>
       </c>
       <c r="B51" s="97" t="s">
+        <v>659</v>
+      </c>
+      <c r="C51" s="97" t="s">
         <v>660</v>
       </c>
-      <c r="C51" s="97" t="s">
-        <v>661</v>
-      </c>
       <c r="D51" s="205" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E51" s="204"/>
       <c r="F51" s="97" t="s">
@@ -12577,7 +12574,7 @@
         <v>22</v>
       </c>
       <c r="H51" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I51" s="203"/>
       <c r="J51" s="90"/>
@@ -12588,13 +12585,13 @@
         <v>[Mod Module-42]</v>
       </c>
       <c r="B52" s="97" t="s">
+        <v>661</v>
+      </c>
+      <c r="C52" s="97" t="s">
         <v>662</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="D52" s="205" t="s">
         <v>663</v>
-      </c>
-      <c r="D52" s="205" t="s">
-        <v>664</v>
       </c>
       <c r="E52" s="204"/>
       <c r="F52" s="97" t="s">
@@ -12604,7 +12601,7 @@
         <v>22</v>
       </c>
       <c r="H52" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I52" s="203"/>
       <c r="J52" s="90"/>
@@ -12615,13 +12612,13 @@
         <v>[Mod Module-43]</v>
       </c>
       <c r="B53" s="97" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C53" s="97" t="s">
+        <v>667</v>
+      </c>
+      <c r="D53" s="205" t="s">
         <v>668</v>
-      </c>
-      <c r="D53" s="205" t="s">
-        <v>669</v>
       </c>
       <c r="E53" s="204"/>
       <c r="F53" s="97" t="s">
@@ -12631,7 +12628,7 @@
         <v>22</v>
       </c>
       <c r="H53" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I53" s="203"/>
       <c r="J53" s="90"/>
@@ -12642,13 +12639,13 @@
         <v>[Mod Module-44]</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C54" s="97" t="s">
+        <v>679</v>
+      </c>
+      <c r="D54" s="205" t="s">
         <v>680</v>
-      </c>
-      <c r="D54" s="205" t="s">
-        <v>681</v>
       </c>
       <c r="E54" s="204"/>
       <c r="F54" s="97" t="s">
@@ -12658,7 +12655,7 @@
         <v>22</v>
       </c>
       <c r="H54" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I54" s="203"/>
       <c r="J54" s="90"/>
@@ -12669,13 +12666,13 @@
         <v>[Mod Module-45]</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C55" s="97" t="s">
+        <v>677</v>
+      </c>
+      <c r="D55" s="205" t="s">
         <v>678</v>
-      </c>
-      <c r="D55" s="205" t="s">
-        <v>679</v>
       </c>
       <c r="E55" s="107"/>
       <c r="F55" s="97" t="s">
@@ -12685,7 +12682,7 @@
         <v>22</v>
       </c>
       <c r="H55" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I55" s="91"/>
       <c r="J55" s="90"/>
@@ -12696,13 +12693,13 @@
         <v>[Mod Module-46]</v>
       </c>
       <c r="B56" s="97" t="s">
+        <v>670</v>
+      </c>
+      <c r="C56" s="97" t="s">
         <v>671</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="D56" s="205" t="s">
         <v>672</v>
-      </c>
-      <c r="D56" s="205" t="s">
-        <v>673</v>
       </c>
       <c r="E56" s="107"/>
       <c r="F56" s="97" t="s">
@@ -12712,7 +12709,7 @@
         <v>22</v>
       </c>
       <c r="H56" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I56" s="91"/>
       <c r="J56" s="90"/>
@@ -12723,13 +12720,13 @@
         <v>[Mod Module-47]</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D57" s="205" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E57" s="107"/>
       <c r="F57" s="97" t="s">
@@ -12739,7 +12736,7 @@
         <v>22</v>
       </c>
       <c r="H57" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I57" s="91"/>
       <c r="J57" s="90"/>
@@ -12750,13 +12747,13 @@
         <v>[Mod Module-48]</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D58" s="205" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E58" s="107"/>
       <c r="F58" s="97" t="s">
@@ -12766,7 +12763,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I58" s="91"/>
       <c r="J58" s="90"/>
@@ -12774,7 +12771,7 @@
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="194"/>
       <c r="B59" s="194" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C59" s="195"/>
       <c r="D59" s="195"/>
@@ -12791,13 +12788,13 @@
         <v>[Mod Module-50]</v>
       </c>
       <c r="B60" s="97" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D60" s="205" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E60" s="107"/>
       <c r="F60" s="97" t="s">
@@ -12807,7 +12804,7 @@
         <v>22</v>
       </c>
       <c r="H60" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I60" s="91"/>
       <c r="J60" s="90"/>
@@ -12818,13 +12815,13 @@
         <v>[Mod Module-51]</v>
       </c>
       <c r="B61" s="97" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D61" s="205" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E61" s="107"/>
       <c r="F61" s="97" t="s">
@@ -12834,7 +12831,7 @@
         <v>22</v>
       </c>
       <c r="H61" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I61" s="91"/>
       <c r="J61" s="90"/>
@@ -12845,13 +12842,13 @@
         <v>[Mod Module-52]</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D62" s="205" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E62" s="107"/>
       <c r="F62" s="97" t="s">
@@ -12861,7 +12858,7 @@
         <v>22</v>
       </c>
       <c r="H62" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I62" s="91"/>
       <c r="J62" s="90"/>
@@ -12872,13 +12869,13 @@
         <v>[Mod Module-53]</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D63" s="205" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E63" s="107"/>
       <c r="F63" s="97" t="s">
@@ -12888,7 +12885,7 @@
         <v>22</v>
       </c>
       <c r="H63" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I63" s="91"/>
       <c r="J63" s="90"/>
@@ -12899,13 +12896,13 @@
         <v>[Mod Module-54]</v>
       </c>
       <c r="B64" s="97" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D64" s="205" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E64" s="107"/>
       <c r="F64" s="97" t="s">
@@ -12915,7 +12912,7 @@
         <v>22</v>
       </c>
       <c r="H64" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I64" s="91"/>
       <c r="J64" s="90"/>
@@ -12926,13 +12923,13 @@
         <v>[Mod Module-55]</v>
       </c>
       <c r="B65" s="97" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D65" s="205" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E65" s="107"/>
       <c r="F65" s="97" t="s">
@@ -12942,7 +12939,7 @@
         <v>22</v>
       </c>
       <c r="H65" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I65" s="91"/>
       <c r="J65" s="90"/>
@@ -12953,13 +12950,13 @@
         <v>[Mod Module-56]</v>
       </c>
       <c r="B66" s="97" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D66" s="205" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E66" s="140"/>
       <c r="F66" s="97" t="s">
@@ -12969,7 +12966,7 @@
         <v>22</v>
       </c>
       <c r="H66" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I66" s="140"/>
       <c r="J66" s="90"/>
@@ -12980,13 +12977,13 @@
         <v>[Mod Module-57]</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D67" s="205" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E67" s="140"/>
       <c r="F67" s="97" t="s">
@@ -12996,7 +12993,7 @@
         <v>22</v>
       </c>
       <c r="H67" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I67" s="140"/>
       <c r="J67" s="90"/>
@@ -13007,13 +13004,13 @@
         <v>[Mod Module-58]</v>
       </c>
       <c r="B68" s="97" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C68" s="97" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D68" s="205" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E68" s="140"/>
       <c r="F68" s="97" t="s">
@@ -13023,7 +13020,7 @@
         <v>22</v>
       </c>
       <c r="H68" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I68" s="140"/>
       <c r="J68" s="90"/>
@@ -13034,13 +13031,13 @@
         <v>[Mod Module-59]</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D69" s="205" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E69" s="140"/>
       <c r="F69" s="97" t="s">
@@ -13050,7 +13047,7 @@
         <v>22</v>
       </c>
       <c r="H69" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I69" s="140"/>
       <c r="J69" s="90"/>
@@ -13061,13 +13058,13 @@
         <v>[Mod Module-60]</v>
       </c>
       <c r="B70" s="97" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D70" s="205" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E70" s="140"/>
       <c r="F70" s="97" t="s">
@@ -13077,7 +13074,7 @@
         <v>22</v>
       </c>
       <c r="H70" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I70" s="140"/>
       <c r="J70" s="90"/>
@@ -13088,13 +13085,13 @@
         <v>[Mod Module-61]</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D71" s="205" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E71" s="140"/>
       <c r="F71" s="97" t="s">
@@ -13104,7 +13101,7 @@
         <v>22</v>
       </c>
       <c r="H71" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I71" s="140"/>
       <c r="J71" s="90"/>
@@ -13115,13 +13112,13 @@
         <v>[Mod Module-62]</v>
       </c>
       <c r="B72" s="97" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D72" s="205" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E72" s="140"/>
       <c r="F72" s="97" t="s">
@@ -13131,7 +13128,7 @@
         <v>22</v>
       </c>
       <c r="H72" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I72" s="140"/>
       <c r="J72" s="90"/>
@@ -13444,14 +13441,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="255" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="257"/>
+      <c r="B2" s="258" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -13702,14 +13699,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="258" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
+      <c r="B3" s="261" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -13960,14 +13957,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="258" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="260"/>
+      <c r="B4" s="261" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -14225,11 +14222,11 @@
       <c r="D5" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="262"/>
-      <c r="G5" s="263"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -14493,12 +14490,12 @@
         <f>COUNTIF(F12:G82,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="264">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A82)*2</f>
         <v>66</v>
       </c>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -15779,7 +15776,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="231"/>
       <c r="B11" s="231" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="231"/>
       <c r="D11" s="231"/>
@@ -16034,13 +16031,13 @@
         <v>[Admin module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E12" s="199"/>
       <c r="F12" s="97" t="s">
@@ -16049,7 +16046,7 @@
       <c r="G12" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="288">
+      <c r="H12" s="245">
         <v>42677</v>
       </c>
       <c r="I12" s="200"/>
@@ -16061,13 +16058,13 @@
         <v>[Admin module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="199"/>
       <c r="F13" s="97" t="s">
@@ -16076,7 +16073,7 @@
       <c r="G13" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="288">
+      <c r="H13" s="245">
         <v>42677</v>
       </c>
       <c r="I13" s="200"/>
@@ -16088,13 +16085,13 @@
         <v>[Admin module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E14" s="201"/>
       <c r="F14" s="97" t="s">
@@ -16103,7 +16100,7 @@
       <c r="G14" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="288">
+      <c r="H14" s="245">
         <v>42677</v>
       </c>
       <c r="I14" s="202"/>
@@ -16115,13 +16112,13 @@
         <v>[Admin module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E15" s="201"/>
       <c r="F15" s="97" t="s">
@@ -16130,7 +16127,7 @@
       <c r="G15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="288">
+      <c r="H15" s="245">
         <v>42677</v>
       </c>
       <c r="I15" s="202"/>
@@ -16142,13 +16139,13 @@
         <v>[Admin module-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E16" s="201"/>
       <c r="F16" s="97" t="s">
@@ -16157,7 +16154,7 @@
       <c r="G16" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="288">
+      <c r="H16" s="245">
         <v>42677</v>
       </c>
       <c r="I16" s="202"/>
@@ -16169,13 +16166,13 @@
         <v>[Admin module-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E17" s="201"/>
       <c r="F17" s="97" t="s">
@@ -16184,7 +16181,7 @@
       <c r="G17" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="288">
+      <c r="H17" s="245">
         <v>42677</v>
       </c>
       <c r="I17" s="202"/>
@@ -16196,13 +16193,13 @@
         <v>[Admin module-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E18" s="201"/>
       <c r="F18" s="97" t="s">
@@ -16211,7 +16208,7 @@
       <c r="G18" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="288">
+      <c r="H18" s="245">
         <v>42677</v>
       </c>
       <c r="I18" s="202"/>
@@ -16223,13 +16220,13 @@
         <v>[Admin module-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E19" s="201"/>
       <c r="F19" s="97" t="s">
@@ -16238,7 +16235,7 @@
       <c r="G19" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="288">
+      <c r="H19" s="245">
         <v>42677</v>
       </c>
       <c r="I19" s="202"/>
@@ -16250,13 +16247,13 @@
         <v>[Admin module-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E20" s="201"/>
       <c r="F20" s="97" t="s">
@@ -16265,7 +16262,7 @@
       <c r="G20" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="288">
+      <c r="H20" s="245">
         <v>42677</v>
       </c>
       <c r="I20" s="202"/>
@@ -16277,13 +16274,13 @@
         <v>[Admin module-11]</v>
       </c>
       <c r="B21" s="97" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>855</v>
+      </c>
+      <c r="D21" s="97" t="s">
         <v>523</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>856</v>
-      </c>
-      <c r="D21" s="97" t="s">
-        <v>524</v>
       </c>
       <c r="E21" s="201"/>
       <c r="F21" s="97" t="s">
@@ -16292,7 +16289,7 @@
       <c r="G21" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="288">
+      <c r="H21" s="245">
         <v>42677</v>
       </c>
       <c r="I21" s="202"/>
@@ -16304,13 +16301,13 @@
         <v>[Admin module-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E22" s="201"/>
       <c r="F22" s="97" t="s">
@@ -16319,7 +16316,7 @@
       <c r="G22" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="288">
+      <c r="H22" s="245">
         <v>42677</v>
       </c>
       <c r="I22" s="202"/>
@@ -16331,13 +16328,13 @@
         <v>[Admin module-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E23" s="201"/>
       <c r="F23" s="97" t="s">
@@ -16346,7 +16343,7 @@
       <c r="G23" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="288">
+      <c r="H23" s="245">
         <v>42677</v>
       </c>
       <c r="I23" s="203"/>
@@ -16355,7 +16352,7 @@
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="188"/>
       <c r="B24" s="187" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C24" s="188"/>
       <c r="D24" s="188"/>
@@ -16372,13 +16369,13 @@
         <v>[Admin module-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C25" s="97" t="s">
+        <v>529</v>
+      </c>
+      <c r="D25" s="97" t="s">
         <v>530</v>
-      </c>
-      <c r="D25" s="97" t="s">
-        <v>531</v>
       </c>
       <c r="E25" s="204"/>
       <c r="F25" s="97" t="s">
@@ -16387,7 +16384,7 @@
       <c r="G25" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="288">
+      <c r="H25" s="245">
         <v>42677</v>
       </c>
       <c r="I25" s="203"/>
@@ -16399,13 +16396,13 @@
         <v>[Admin module-16]</v>
       </c>
       <c r="B26" s="97" t="s">
+        <v>528</v>
+      </c>
+      <c r="C26" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="D26" s="97" t="s">
         <v>530</v>
-      </c>
-      <c r="D26" s="97" t="s">
-        <v>531</v>
       </c>
       <c r="E26" s="204"/>
       <c r="F26" s="97" t="s">
@@ -16414,7 +16411,7 @@
       <c r="G26" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="288">
+      <c r="H26" s="245">
         <v>42677</v>
       </c>
       <c r="I26" s="203"/>
@@ -16423,7 +16420,7 @@
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="213"/>
       <c r="B27" s="212" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C27" s="213"/>
       <c r="D27" s="213"/>
@@ -16440,13 +16437,13 @@
         <v>[Admin module-18]</v>
       </c>
       <c r="B28" s="97" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="97" t="s">
         <v>533</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="D28" s="205" t="s">
         <v>534</v>
-      </c>
-      <c r="D28" s="205" t="s">
-        <v>535</v>
       </c>
       <c r="E28" s="204"/>
       <c r="F28" s="97" t="s">
@@ -16455,7 +16452,7 @@
       <c r="G28" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="288">
+      <c r="H28" s="245">
         <v>42677</v>
       </c>
       <c r="I28" s="203"/>
@@ -16464,7 +16461,7 @@
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="188"/>
       <c r="B29" s="187" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C29" s="188"/>
       <c r="D29" s="188"/>
@@ -16481,13 +16478,13 @@
         <v>[Admin module-20]</v>
       </c>
       <c r="B30" s="232" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C30" s="232" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D30" s="232" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E30" s="204"/>
       <c r="F30" s="97" t="s">
@@ -16496,7 +16493,7 @@
       <c r="G30" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="288">
+      <c r="H30" s="245">
         <v>42677</v>
       </c>
       <c r="I30" s="203"/>
@@ -16508,13 +16505,13 @@
         <v>[Admin module-21]</v>
       </c>
       <c r="B31" s="232" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C31" s="232" t="s">
+        <v>539</v>
+      </c>
+      <c r="D31" s="232" t="s">
         <v>540</v>
-      </c>
-      <c r="D31" s="232" t="s">
-        <v>541</v>
       </c>
       <c r="E31" s="204"/>
       <c r="F31" s="97" t="s">
@@ -16523,7 +16520,7 @@
       <c r="G31" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="288">
+      <c r="H31" s="245">
         <v>42677</v>
       </c>
       <c r="I31" s="203"/>
@@ -16535,13 +16532,13 @@
         <v>[Admin module-22]</v>
       </c>
       <c r="B32" s="232" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C32" s="232" t="s">
+        <v>541</v>
+      </c>
+      <c r="D32" s="232" t="s">
         <v>542</v>
-      </c>
-      <c r="D32" s="232" t="s">
-        <v>543</v>
       </c>
       <c r="E32" s="204"/>
       <c r="F32" s="97" t="s">
@@ -16550,7 +16547,7 @@
       <c r="G32" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="288">
+      <c r="H32" s="245">
         <v>42677</v>
       </c>
       <c r="I32" s="203"/>
@@ -16562,13 +16559,13 @@
         <v>[Admin module-23]</v>
       </c>
       <c r="B33" s="232" t="s">
+        <v>545</v>
+      </c>
+      <c r="C33" s="232" t="s">
         <v>546</v>
       </c>
-      <c r="C33" s="232" t="s">
+      <c r="D33" s="232" t="s">
         <v>547</v>
-      </c>
-      <c r="D33" s="232" t="s">
-        <v>548</v>
       </c>
       <c r="E33" s="204"/>
       <c r="F33" s="97" t="s">
@@ -16577,7 +16574,7 @@
       <c r="G33" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="288">
+      <c r="H33" s="245">
         <v>42677</v>
       </c>
       <c r="I33" s="203"/>
@@ -16589,13 +16586,13 @@
         <v>[Admin module-24]</v>
       </c>
       <c r="B34" s="232" t="s">
+        <v>548</v>
+      </c>
+      <c r="C34" s="232" t="s">
         <v>549</v>
       </c>
-      <c r="C34" s="232" t="s">
+      <c r="D34" s="232" t="s">
         <v>550</v>
-      </c>
-      <c r="D34" s="232" t="s">
-        <v>551</v>
       </c>
       <c r="E34" s="204"/>
       <c r="F34" s="97" t="s">
@@ -16604,7 +16601,7 @@
       <c r="G34" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="288">
+      <c r="H34" s="245">
         <v>42677</v>
       </c>
       <c r="I34" s="203"/>
@@ -16616,13 +16613,13 @@
         <v>[Admin module-25]</v>
       </c>
       <c r="B35" s="232" t="s">
+        <v>586</v>
+      </c>
+      <c r="C35" s="232" t="s">
+        <v>551</v>
+      </c>
+      <c r="D35" s="232" t="s">
         <v>587</v>
-      </c>
-      <c r="C35" s="232" t="s">
-        <v>552</v>
-      </c>
-      <c r="D35" s="232" t="s">
-        <v>588</v>
       </c>
       <c r="E35" s="204"/>
       <c r="F35" s="97" t="s">
@@ -16631,7 +16628,7 @@
       <c r="G35" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="288">
+      <c r="H35" s="245">
         <v>42677</v>
       </c>
       <c r="I35" s="203"/>
@@ -16640,7 +16637,7 @@
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="230"/>
       <c r="B36" s="187" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C36" s="188"/>
       <c r="D36" s="188"/>
@@ -16657,13 +16654,13 @@
         <v>[Admin module-27]</v>
       </c>
       <c r="B37" s="206" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D37" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E37" s="204"/>
       <c r="F37" s="97" t="s">
@@ -16672,7 +16669,7 @@
       <c r="G37" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="288">
+      <c r="H37" s="245">
         <v>42677</v>
       </c>
       <c r="I37" s="203"/>
@@ -16684,13 +16681,13 @@
         <v>[Admin module-28]</v>
       </c>
       <c r="B38" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="C38" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="D38" s="205" t="s">
         <v>555</v>
-      </c>
-      <c r="D38" s="205" t="s">
-        <v>556</v>
       </c>
       <c r="E38" s="204"/>
       <c r="F38" s="97" t="s">
@@ -16699,7 +16696,7 @@
       <c r="G38" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="288">
+      <c r="H38" s="245">
         <v>42677</v>
       </c>
       <c r="I38" s="203"/>
@@ -16711,13 +16708,13 @@
         <v>[Admin module-29]</v>
       </c>
       <c r="B39" s="97" t="s">
+        <v>556</v>
+      </c>
+      <c r="C39" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="C39" s="97" t="s">
+      <c r="D39" s="205" t="s">
         <v>558</v>
-      </c>
-      <c r="D39" s="205" t="s">
-        <v>559</v>
       </c>
       <c r="E39" s="204"/>
       <c r="F39" s="97" t="s">
@@ -16726,7 +16723,7 @@
       <c r="G39" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="288">
+      <c r="H39" s="245">
         <v>42677</v>
       </c>
       <c r="I39" s="203"/>
@@ -16738,13 +16735,13 @@
         <v>[Admin module-30]</v>
       </c>
       <c r="B40" s="97" t="s">
+        <v>559</v>
+      </c>
+      <c r="C40" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="D40" s="205" t="s">
         <v>561</v>
-      </c>
-      <c r="D40" s="205" t="s">
-        <v>562</v>
       </c>
       <c r="E40" s="204"/>
       <c r="F40" s="97" t="s">
@@ -16753,7 +16750,7 @@
       <c r="G40" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="288">
+      <c r="H40" s="245">
         <v>42677</v>
       </c>
       <c r="I40" s="203"/>
@@ -16765,13 +16762,13 @@
         <v>[Admin module-31]</v>
       </c>
       <c r="B41" s="97" t="s">
+        <v>562</v>
+      </c>
+      <c r="C41" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="C41" s="97" t="s">
+      <c r="D41" s="205" t="s">
         <v>564</v>
-      </c>
-      <c r="D41" s="205" t="s">
-        <v>565</v>
       </c>
       <c r="E41" s="204"/>
       <c r="F41" s="97" t="s">
@@ -16780,7 +16777,7 @@
       <c r="G41" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="288">
+      <c r="H41" s="245">
         <v>42677</v>
       </c>
       <c r="I41" s="203"/>
@@ -16792,13 +16789,13 @@
         <v>[Admin module-32]</v>
       </c>
       <c r="B42" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="C42" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="C42" s="97" t="s">
-        <v>569</v>
-      </c>
       <c r="D42" s="205" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E42" s="204"/>
       <c r="F42" s="97" t="s">
@@ -16807,7 +16804,7 @@
       <c r="G42" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="288">
+      <c r="H42" s="245">
         <v>42677</v>
       </c>
       <c r="I42" s="203"/>
@@ -16819,13 +16816,13 @@
         <v>[Admin module-33]</v>
       </c>
       <c r="B43" s="97" t="s">
+        <v>565</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>569</v>
+      </c>
+      <c r="D43" s="205" t="s">
         <v>566</v>
-      </c>
-      <c r="C43" s="97" t="s">
-        <v>570</v>
-      </c>
-      <c r="D43" s="205" t="s">
-        <v>567</v>
       </c>
       <c r="E43" s="204"/>
       <c r="F43" s="97" t="s">
@@ -16834,7 +16831,7 @@
       <c r="G43" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="288">
+      <c r="H43" s="245">
         <v>42677</v>
       </c>
       <c r="I43" s="203"/>
@@ -16843,7 +16840,7 @@
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="188"/>
       <c r="B44" s="187" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C44" s="188"/>
       <c r="D44" s="188"/>
@@ -16860,13 +16857,13 @@
         <v>[Admin module-35]</v>
       </c>
       <c r="B45" s="206" t="s">
+        <v>588</v>
+      </c>
+      <c r="C45" s="97" t="s">
         <v>589</v>
       </c>
-      <c r="C45" s="97" t="s">
+      <c r="D45" s="205" t="s">
         <v>590</v>
-      </c>
-      <c r="D45" s="205" t="s">
-        <v>591</v>
       </c>
       <c r="E45" s="204"/>
       <c r="F45" s="97" t="s">
@@ -16875,7 +16872,7 @@
       <c r="G45" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="288">
+      <c r="H45" s="245">
         <v>42677</v>
       </c>
       <c r="I45" s="209"/>
@@ -16887,13 +16884,13 @@
         <v>[Admin module-36]</v>
       </c>
       <c r="B46" s="97" t="s">
+        <v>591</v>
+      </c>
+      <c r="C46" s="97" t="s">
         <v>592</v>
       </c>
-      <c r="C46" s="97" t="s">
-        <v>593</v>
-      </c>
       <c r="D46" s="205" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E46" s="204"/>
       <c r="F46" s="97" t="s">
@@ -16902,7 +16899,7 @@
       <c r="G46" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="288">
+      <c r="H46" s="245">
         <v>42677</v>
       </c>
       <c r="I46" s="209"/>
@@ -16914,13 +16911,13 @@
         <v>[Admin module-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C47" s="97" t="s">
+        <v>593</v>
+      </c>
+      <c r="D47" s="205" t="s">
         <v>594</v>
-      </c>
-      <c r="D47" s="205" t="s">
-        <v>595</v>
       </c>
       <c r="E47" s="204"/>
       <c r="F47" s="97" t="s">
@@ -16929,7 +16926,7 @@
       <c r="G47" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="288">
+      <c r="H47" s="245">
         <v>42677</v>
       </c>
       <c r="I47" s="209"/>
@@ -16941,13 +16938,13 @@
         <v>[Admin module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
+        <v>595</v>
+      </c>
+      <c r="C48" s="97" t="s">
         <v>596</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="D48" s="205" t="s">
         <v>597</v>
-      </c>
-      <c r="D48" s="205" t="s">
-        <v>598</v>
       </c>
       <c r="E48" s="204"/>
       <c r="F48" s="97" t="s">
@@ -16956,7 +16953,7 @@
       <c r="G48" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="288">
+      <c r="H48" s="245">
         <v>42677</v>
       </c>
       <c r="I48" s="209"/>
@@ -16968,13 +16965,13 @@
         <v>[Admin module-39]</v>
       </c>
       <c r="B49" s="97" t="s">
+        <v>598</v>
+      </c>
+      <c r="C49" s="97" t="s">
+        <v>596</v>
+      </c>
+      <c r="D49" s="205" t="s">
         <v>599</v>
-      </c>
-      <c r="C49" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="D49" s="205" t="s">
-        <v>600</v>
       </c>
       <c r="E49" s="204"/>
       <c r="F49" s="97" t="s">
@@ -16983,7 +16980,7 @@
       <c r="G49" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="288">
+      <c r="H49" s="245">
         <v>42677</v>
       </c>
       <c r="I49" s="209"/>
@@ -17017,8 +17014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17033,15 +17030,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="55"/>
@@ -17057,15 +17054,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="248" t="str">
+      <c r="C3" s="251" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="248"/>
-      <c r="E3" s="249" t="s">
+      <c r="D3" s="251"/>
+      <c r="E3" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="249"/>
+      <c r="F3" s="252"/>
       <c r="G3" s="58" t="s">
         <v>53</v>
       </c>
@@ -17075,15 +17072,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="248" t="str">
+      <c r="C4" s="251" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="D4" s="251"/>
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="249"/>
+      <c r="F4" s="252"/>
       <c r="G4" s="58" t="s">
         <v>54</v>
       </c>
@@ -17093,17 +17090,17 @@
       <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="248" t="str">
+      <c r="C5" s="251" t="str">
         <f>C4&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_System Test Report_v1.0</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="E5" s="249" t="s">
+      <c r="D5" s="251"/>
+      <c r="E5" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="249"/>
+      <c r="F5" s="252"/>
       <c r="G5" s="94" t="s">
-        <v>226</v>
+        <v>981</v>
       </c>
       <c r="H5" s="61"/>
     </row>
@@ -17112,12 +17109,12 @@
       <c r="B6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="250"/>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="55"/>
@@ -17236,7 +17233,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D13" s="128">
         <f>'Herbal medicine store'!A6</f>
@@ -17265,7 +17262,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="118" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="128">
         <f>'Personal Page'!A6</f>
@@ -17294,7 +17291,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D15" s="128">
         <f>Authentication!A6</f>
@@ -17323,7 +17320,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="118" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16" s="128">
         <f>'Mod Module'!A6</f>
@@ -17352,7 +17349,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="118" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17" s="128">
         <f>'Admin Module'!A6</f>
@@ -17381,7 +17378,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="119" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" s="128">
         <f>Homepage!A6</f>
@@ -17567,39 +17564,39 @@
       <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="257" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="248" t="str">
+      <c r="C3" s="257"/>
+      <c r="D3" s="251" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="254" t="s">
+      <c r="B4" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="248" t="str">
+      <c r="C4" s="257"/>
+      <c r="D4" s="251" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="248"/>
-      <c r="F4" s="248"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="2:6" s="39" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="252" t="s">
+      <c r="B5" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="253" t="s">
+      <c r="C5" s="255"/>
+      <c r="D5" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="40"/>
@@ -17663,10 +17660,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="149" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="127"/>
       <c r="F11" s="127"/>
@@ -17676,10 +17673,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" s="149" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12" s="127"/>
       <c r="F12" s="127"/>
@@ -17689,10 +17686,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D13" s="149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E13" s="127"/>
       <c r="F13" s="127"/>
@@ -17702,10 +17699,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D14" s="149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
@@ -17715,10 +17712,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="125" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15" s="149" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E15" s="127"/>
       <c r="F15" s="127"/>
@@ -17755,7 +17752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -18034,14 +18031,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="255" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="257"/>
+      <c r="B2" s="258" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -18292,14 +18289,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="258" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
+      <c r="B3" s="261" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -18550,14 +18547,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="258" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="260"/>
+      <c r="B4" s="261" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -18815,11 +18812,11 @@
       <c r="D5" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="262"/>
-      <c r="G5" s="263"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -19083,12 +19080,12 @@
         <f>COUNTIF(F12:G59,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="264">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A59)*2</f>
         <v>30</v>
       </c>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -20369,7 +20366,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -20624,13 +20621,13 @@
         <v>[Homepage-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="95" t="s">
@@ -20639,7 +20636,7 @@
       <c r="G12" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="287">
+      <c r="H12" s="244">
         <v>42677</v>
       </c>
       <c r="I12" s="100"/>
@@ -20651,13 +20648,13 @@
         <v>[Homepage-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" s="101"/>
       <c r="F13" s="95" t="s">
@@ -20666,7 +20663,7 @@
       <c r="G13" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="287">
+      <c r="H13" s="244">
         <v>42677</v>
       </c>
       <c r="I13" s="103"/>
@@ -20678,13 +20675,13 @@
         <v>[Homepage-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="95" t="s">
@@ -20693,7 +20690,7 @@
       <c r="G14" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="287">
+      <c r="H14" s="244">
         <v>42677</v>
       </c>
       <c r="I14" s="103"/>
@@ -20705,13 +20702,13 @@
         <v>[Homepage-5]</v>
       </c>
       <c r="B15" s="97" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="97" t="s">
-        <v>368</v>
-      </c>
       <c r="D15" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E15" s="101"/>
       <c r="F15" s="95" t="s">
@@ -20720,7 +20717,7 @@
       <c r="G15" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="287">
+      <c r="H15" s="244">
         <v>42677</v>
       </c>
       <c r="I15" s="103"/>
@@ -20732,13 +20729,13 @@
         <v>[Homepage-6]</v>
       </c>
       <c r="B16" s="193" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D16" s="193" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E16" s="101"/>
       <c r="F16" s="95" t="s">
@@ -20747,7 +20744,7 @@
       <c r="G16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="287">
+      <c r="H16" s="244">
         <v>42677</v>
       </c>
       <c r="I16" s="103"/>
@@ -20759,13 +20756,13 @@
         <v>[Homepage-7]</v>
       </c>
       <c r="B17" s="193" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="104" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="D17" s="193" t="s">
         <v>380</v>
-      </c>
-      <c r="D17" s="193" t="s">
-        <v>381</v>
       </c>
       <c r="E17" s="101"/>
       <c r="F17" s="95" t="s">
@@ -20774,7 +20771,7 @@
       <c r="G17" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="287">
+      <c r="H17" s="244">
         <v>42677</v>
       </c>
       <c r="I17" s="103"/>
@@ -20786,13 +20783,13 @@
         <v>[Homepage-8]</v>
       </c>
       <c r="B18" s="193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D18" s="193" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E18" s="101"/>
       <c r="F18" s="95" t="s">
@@ -20801,7 +20798,7 @@
       <c r="G18" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="287">
+      <c r="H18" s="244">
         <v>42677</v>
       </c>
       <c r="I18" s="103"/>
@@ -20813,13 +20810,13 @@
         <v>[Homepage-9]</v>
       </c>
       <c r="B19" s="193" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D19" s="193" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E19" s="101"/>
       <c r="F19" s="95" t="s">
@@ -20828,7 +20825,7 @@
       <c r="G19" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="287">
+      <c r="H19" s="244">
         <v>42677</v>
       </c>
       <c r="I19" s="103"/>
@@ -20840,13 +20837,13 @@
         <v>[Homepage-10]</v>
       </c>
       <c r="B20" s="193" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D20" s="193" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E20" s="101"/>
       <c r="F20" s="95" t="s">
@@ -20855,7 +20852,7 @@
       <c r="G20" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="287">
+      <c r="H20" s="244">
         <v>42677</v>
       </c>
       <c r="I20" s="103"/>
@@ -20867,13 +20864,13 @@
         <v>[Homepage-11]</v>
       </c>
       <c r="B21" s="193" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C21" s="104" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D21" s="193" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E21" s="101"/>
       <c r="F21" s="95" t="s">
@@ -20882,7 +20879,7 @@
       <c r="G21" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="287">
+      <c r="H21" s="244">
         <v>42677</v>
       </c>
       <c r="I21" s="103"/>
@@ -20894,13 +20891,13 @@
         <v>[Homepage-12]</v>
       </c>
       <c r="B22" s="193" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="C22" s="104" t="s">
-        <v>371</v>
-      </c>
       <c r="D22" s="193" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E22" s="101"/>
       <c r="F22" s="95" t="s">
@@ -20909,7 +20906,7 @@
       <c r="G22" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="287">
+      <c r="H22" s="244">
         <v>42677</v>
       </c>
       <c r="I22" s="103"/>
@@ -20921,13 +20918,13 @@
         <v>[Homepage-13]</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D23" s="107" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E23" s="101"/>
       <c r="F23" s="95" t="s">
@@ -20936,7 +20933,7 @@
       <c r="G23" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="287">
+      <c r="H23" s="244">
         <v>42677</v>
       </c>
       <c r="I23" s="103"/>
@@ -20948,13 +20945,13 @@
         <v>[Homepage-14]</v>
       </c>
       <c r="B24" s="107" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="107" t="s">
         <v>372</v>
       </c>
-      <c r="C24" s="107" t="s">
-        <v>373</v>
-      </c>
       <c r="D24" s="107" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E24" s="101"/>
       <c r="F24" s="95" t="s">
@@ -20963,7 +20960,7 @@
       <c r="G24" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="287">
+      <c r="H24" s="244">
         <v>42677</v>
       </c>
       <c r="I24" s="103"/>
@@ -20975,13 +20972,13 @@
         <v>[Homepage-15]</v>
       </c>
       <c r="B25" s="193" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C25" s="193" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25" s="193" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E25" s="192"/>
       <c r="F25" s="95" t="s">
@@ -20990,7 +20987,7 @@
       <c r="G25" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="287">
+      <c r="H25" s="244">
         <v>42677</v>
       </c>
       <c r="I25" s="103"/>
@@ -21002,13 +20999,13 @@
         <v>[Homepage-16]</v>
       </c>
       <c r="B26" s="193" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" s="193" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D26" s="193" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E26" s="101"/>
       <c r="F26" s="238" t="s">
@@ -21017,7 +21014,7 @@
       <c r="G26" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="287">
+      <c r="H26" s="244">
         <v>42677</v>
       </c>
       <c r="I26" s="103"/>
@@ -21330,14 +21327,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="257"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -21588,14 +21585,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -21846,14 +21843,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="260"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -22111,11 +22108,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="262"/>
-      <c r="G5" s="263"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -22379,12 +22376,12 @@
         <f>COUNTIF(F12:G109,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="264">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A109)*2</f>
         <v>114</v>
       </c>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -23926,7 +23923,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="95" t="s">
@@ -23935,7 +23932,7 @@
       <c r="G12" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="289">
+      <c r="H12" s="246">
         <v>42707</v>
       </c>
       <c r="I12" s="100"/>
@@ -23953,7 +23950,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E13" s="101"/>
       <c r="F13" s="95" t="s">
@@ -23962,7 +23959,7 @@
       <c r="G13" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="289">
+      <c r="H13" s="246">
         <v>42707</v>
       </c>
       <c r="I13" s="100"/>
@@ -23977,10 +23974,10 @@
         <v>61</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="95" t="s">
@@ -23989,7 +23986,7 @@
       <c r="G14" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="289">
+      <c r="H14" s="246">
         <v>42707</v>
       </c>
       <c r="I14" s="103"/>
@@ -24007,7 +24004,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E15" s="101"/>
       <c r="F15" s="95" t="s">
@@ -24016,7 +24013,7 @@
       <c r="G15" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="289">
+      <c r="H15" s="246">
         <v>42707</v>
       </c>
       <c r="I15" s="103"/>
@@ -24034,7 +24031,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E16" s="101"/>
       <c r="F16" s="95" t="s">
@@ -24043,7 +24040,7 @@
       <c r="G16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="289">
+      <c r="H16" s="246">
         <v>42707</v>
       </c>
       <c r="I16" s="103"/>
@@ -24061,7 +24058,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E17" s="101"/>
       <c r="F17" s="95" t="s">
@@ -24070,7 +24067,7 @@
       <c r="G17" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="289">
+      <c r="H17" s="246">
         <v>42707</v>
       </c>
       <c r="I17" s="103"/>
@@ -24088,7 +24085,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E18" s="101"/>
       <c r="F18" s="95" t="s">
@@ -24097,7 +24094,7 @@
       <c r="G18" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="289">
+      <c r="H18" s="246">
         <v>42707</v>
       </c>
       <c r="I18" s="103"/>
@@ -24109,13 +24106,13 @@
         <v>[Medicinal plants Article-9]</v>
       </c>
       <c r="B19" s="107" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="137" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="137" t="s">
-        <v>331</v>
-      </c>
       <c r="D19" s="97" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E19" s="101"/>
       <c r="F19" s="95" t="s">
@@ -24124,7 +24121,7 @@
       <c r="G19" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="289">
+      <c r="H19" s="246">
         <v>42707</v>
       </c>
       <c r="I19" s="103"/>
@@ -24142,7 +24139,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="133" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E20" s="192"/>
       <c r="F20" s="95" t="s">
@@ -24151,7 +24148,7 @@
       <c r="G20" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="289">
+      <c r="H20" s="246">
         <v>42707</v>
       </c>
       <c r="I20" s="103"/>
@@ -24163,13 +24160,13 @@
         <v>[Medicinal plants Article-11]</v>
       </c>
       <c r="B21" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="97" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="97" t="s">
-        <v>333</v>
-      </c>
       <c r="D21" s="97" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E21" s="101"/>
       <c r="F21" s="95" t="s">
@@ -24178,7 +24175,7 @@
       <c r="G21" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="289">
+      <c r="H21" s="246">
         <v>42707</v>
       </c>
       <c r="I21" s="103"/>
@@ -24196,7 +24193,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E22" s="101"/>
       <c r="F22" s="95" t="s">
@@ -24205,7 +24202,7 @@
       <c r="G22" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="289">
+      <c r="H22" s="246">
         <v>42707</v>
       </c>
       <c r="I22" s="103"/>
@@ -24217,13 +24214,13 @@
         <v>[Medicinal plants Article-13]</v>
       </c>
       <c r="B23" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" s="97" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="97" t="s">
-        <v>335</v>
-      </c>
       <c r="D23" s="97" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E23" s="101"/>
       <c r="F23" s="95" t="s">
@@ -24232,7 +24229,7 @@
       <c r="G23" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="289">
+      <c r="H23" s="246">
         <v>42707</v>
       </c>
       <c r="I23" s="103"/>
@@ -24250,7 +24247,7 @@
         <v>69</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E24" s="101"/>
       <c r="F24" s="95" t="s">
@@ -24259,7 +24256,7 @@
       <c r="G24" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="289">
+      <c r="H24" s="246">
         <v>42707</v>
       </c>
       <c r="I24" s="103"/>
@@ -24271,13 +24268,13 @@
         <v>[Medicinal plants Article-15]</v>
       </c>
       <c r="B25" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" s="97" t="s">
         <v>336</v>
       </c>
-      <c r="C25" s="97" t="s">
-        <v>337</v>
-      </c>
       <c r="D25" s="97" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E25" s="101"/>
       <c r="F25" s="95" t="s">
@@ -24286,7 +24283,7 @@
       <c r="G25" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="289">
+      <c r="H25" s="246">
         <v>42707</v>
       </c>
       <c r="I25" s="103"/>
@@ -24304,7 +24301,7 @@
         <v>70</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E26" s="101"/>
       <c r="F26" s="95" t="s">
@@ -24313,7 +24310,7 @@
       <c r="G26" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="289">
+      <c r="H26" s="246">
         <v>42707</v>
       </c>
       <c r="I26" s="103"/>
@@ -24325,13 +24322,13 @@
         <v>[Medicinal plants Article-17]</v>
       </c>
       <c r="B27" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="97" t="s">
         <v>338</v>
       </c>
-      <c r="C27" s="97" t="s">
-        <v>339</v>
-      </c>
       <c r="D27" s="97" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E27" s="101"/>
       <c r="F27" s="95" t="s">
@@ -24340,7 +24337,7 @@
       <c r="G27" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="289">
+      <c r="H27" s="246">
         <v>42707</v>
       </c>
       <c r="I27" s="103"/>
@@ -24358,7 +24355,7 @@
         <v>71</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E28" s="101"/>
       <c r="F28" s="95" t="s">
@@ -24367,7 +24364,7 @@
       <c r="G28" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="289">
+      <c r="H28" s="246">
         <v>42707</v>
       </c>
       <c r="I28" s="103"/>
@@ -24379,13 +24376,13 @@
         <v>[Medicinal plants Article-19]</v>
       </c>
       <c r="B29" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="97" t="s">
         <v>340</v>
       </c>
-      <c r="C29" s="97" t="s">
-        <v>341</v>
-      </c>
       <c r="D29" s="97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E29" s="101"/>
       <c r="F29" s="95" t="s">
@@ -24394,7 +24391,7 @@
       <c r="G29" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="289">
+      <c r="H29" s="246">
         <v>42707</v>
       </c>
       <c r="I29" s="103"/>
@@ -24412,7 +24409,7 @@
         <v>72</v>
       </c>
       <c r="D30" s="138" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E30" s="101"/>
       <c r="F30" s="95" t="s">
@@ -24421,7 +24418,7 @@
       <c r="G30" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="289">
+      <c r="H30" s="246">
         <v>42707</v>
       </c>
       <c r="I30" s="103"/>
@@ -24433,13 +24430,13 @@
         <v>[Medicinal plants Article-21]</v>
       </c>
       <c r="B31" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="C31" s="97" t="s">
-        <v>343</v>
-      </c>
       <c r="D31" s="138" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E31" s="101"/>
       <c r="F31" s="95" t="s">
@@ -24448,7 +24445,7 @@
       <c r="G31" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="289">
+      <c r="H31" s="246">
         <v>42707</v>
       </c>
       <c r="I31" s="103"/>
@@ -24459,13 +24456,13 @@
       <c r="B32" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="267"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="267"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="267"/>
-      <c r="H32" s="267"/>
-      <c r="I32" s="268"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="270"/>
+      <c r="I32" s="271"/>
       <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24480,7 +24477,7 @@
         <v>86</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E33" s="101"/>
       <c r="F33" s="95" t="s">
@@ -24489,7 +24486,7 @@
       <c r="G33" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="289">
+      <c r="H33" s="246">
         <v>42707</v>
       </c>
       <c r="I33" s="140"/>
@@ -24507,7 +24504,7 @@
         <v>87</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E34" s="140"/>
       <c r="F34" s="95" t="s">
@@ -24516,7 +24513,7 @@
       <c r="G34" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="289">
+      <c r="H34" s="246">
         <v>42707</v>
       </c>
       <c r="I34" s="140"/>
@@ -24534,7 +24531,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E35" s="140"/>
       <c r="F35" s="95" t="s">
@@ -24543,7 +24540,7 @@
       <c r="G35" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="289">
+      <c r="H35" s="246">
         <v>42707</v>
       </c>
       <c r="I35" s="140"/>
@@ -24561,7 +24558,7 @@
         <v>89</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E36" s="140"/>
       <c r="F36" s="95" t="s">
@@ -24570,7 +24567,7 @@
       <c r="G36" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="289">
+      <c r="H36" s="246">
         <v>42707</v>
       </c>
       <c r="I36" s="140"/>
@@ -24588,7 +24585,7 @@
         <v>90</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E37" s="140"/>
       <c r="F37" s="95" t="s">
@@ -24597,7 +24594,7 @@
       <c r="G37" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="289">
+      <c r="H37" s="246">
         <v>42707</v>
       </c>
       <c r="I37" s="140"/>
@@ -24615,7 +24612,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E38" s="140"/>
       <c r="F38" s="95" t="s">
@@ -24624,7 +24621,7 @@
       <c r="G38" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="289">
+      <c r="H38" s="246">
         <v>42707</v>
       </c>
       <c r="I38" s="140"/>
@@ -24642,7 +24639,7 @@
         <v>92</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E39" s="140"/>
       <c r="F39" s="95" t="s">
@@ -24651,7 +24648,7 @@
       <c r="G39" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="289">
+      <c r="H39" s="246">
         <v>42707</v>
       </c>
       <c r="I39" s="140"/>
@@ -24669,7 +24666,7 @@
         <v>93</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E40" s="140"/>
       <c r="F40" s="95" t="s">
@@ -24678,7 +24675,7 @@
       <c r="G40" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="289">
+      <c r="H40" s="246">
         <v>42707</v>
       </c>
       <c r="I40" s="140"/>
@@ -24696,7 +24693,7 @@
         <v>94</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E41" s="142"/>
       <c r="F41" s="95" t="s">
@@ -24705,7 +24702,7 @@
       <c r="G41" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="289">
+      <c r="H41" s="246">
         <v>42707</v>
       </c>
       <c r="I41" s="140"/>
@@ -24723,7 +24720,7 @@
         <v>95</v>
       </c>
       <c r="D42" s="97" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E42" s="140"/>
       <c r="F42" s="95" t="s">
@@ -24732,7 +24729,7 @@
       <c r="G42" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="289">
+      <c r="H42" s="246">
         <v>42707</v>
       </c>
       <c r="I42" s="140"/>
@@ -24750,7 +24747,7 @@
         <v>96</v>
       </c>
       <c r="D43" s="97" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E43" s="140"/>
       <c r="F43" s="95" t="s">
@@ -24759,7 +24756,7 @@
       <c r="G43" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="289">
+      <c r="H43" s="246">
         <v>42707</v>
       </c>
       <c r="I43" s="140"/>
@@ -24777,7 +24774,7 @@
         <v>97</v>
       </c>
       <c r="D44" s="138" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E44" s="140"/>
       <c r="F44" s="95" t="s">
@@ -24786,7 +24783,7 @@
       <c r="G44" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="289">
+      <c r="H44" s="246">
         <v>42707</v>
       </c>
       <c r="I44" s="140"/>
@@ -24797,13 +24794,13 @@
       <c r="B45" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="269"/>
-      <c r="D45" s="269"/>
-      <c r="E45" s="269"/>
-      <c r="F45" s="269"/>
-      <c r="G45" s="269"/>
-      <c r="H45" s="269"/>
-      <c r="I45" s="270"/>
+      <c r="C45" s="272"/>
+      <c r="D45" s="272"/>
+      <c r="E45" s="272"/>
+      <c r="F45" s="272"/>
+      <c r="G45" s="272"/>
+      <c r="H45" s="272"/>
+      <c r="I45" s="273"/>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" s="152" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24827,7 +24824,7 @@
       <c r="G46" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="289">
+      <c r="H46" s="246">
         <v>42707</v>
       </c>
       <c r="I46" s="151"/>
@@ -24853,7 +24850,7 @@
       <c r="G47" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="289">
+      <c r="H47" s="246">
         <v>42707</v>
       </c>
       <c r="I47" s="151"/>
@@ -24867,10 +24864,10 @@
         <v>105</v>
       </c>
       <c r="C48" s="154" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E48" s="157"/>
       <c r="F48" s="95" t="s">
@@ -24879,7 +24876,7 @@
       <c r="G48" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="289">
+      <c r="H48" s="246">
         <v>42707</v>
       </c>
       <c r="I48" s="140"/>
@@ -24906,7 +24903,7 @@
       <c r="G49" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="289">
+      <c r="H49" s="246">
         <v>42707</v>
       </c>
       <c r="I49" s="142"/>
@@ -24917,13 +24914,13 @@
       <c r="B50" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="271"/>
-      <c r="D50" s="271"/>
-      <c r="E50" s="271"/>
-      <c r="F50" s="271"/>
-      <c r="G50" s="271"/>
-      <c r="H50" s="271"/>
-      <c r="I50" s="271"/>
+      <c r="C50" s="274"/>
+      <c r="D50" s="274"/>
+      <c r="E50" s="274"/>
+      <c r="F50" s="274"/>
+      <c r="G50" s="274"/>
+      <c r="H50" s="274"/>
+      <c r="I50" s="274"/>
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24947,7 +24944,7 @@
       <c r="G51" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="289">
+      <c r="H51" s="246">
         <v>42707</v>
       </c>
       <c r="I51" s="157"/>
@@ -24974,7 +24971,7 @@
       <c r="G52" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="289">
+      <c r="H52" s="246">
         <v>42707</v>
       </c>
       <c r="I52" s="140"/>
@@ -25001,7 +24998,7 @@
       <c r="G53" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="289">
+      <c r="H53" s="246">
         <v>42707</v>
       </c>
       <c r="I53" s="140"/>
@@ -25028,7 +25025,7 @@
       <c r="G54" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="289">
+      <c r="H54" s="246">
         <v>42707</v>
       </c>
       <c r="I54" s="140"/>
@@ -25043,10 +25040,10 @@
         <v>115</v>
       </c>
       <c r="C55" s="130" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D55" s="133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E55" s="142"/>
       <c r="F55" s="95" t="s">
@@ -25055,7 +25052,7 @@
       <c r="G55" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="289">
+      <c r="H55" s="246">
         <v>42707</v>
       </c>
       <c r="I55" s="142"/>
@@ -25066,13 +25063,13 @@
       <c r="B56" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="271"/>
-      <c r="D56" s="271"/>
-      <c r="E56" s="271"/>
-      <c r="F56" s="271"/>
-      <c r="G56" s="271"/>
-      <c r="H56" s="271"/>
-      <c r="I56" s="271"/>
+      <c r="C56" s="274"/>
+      <c r="D56" s="274"/>
+      <c r="E56" s="274"/>
+      <c r="F56" s="274"/>
+      <c r="G56" s="274"/>
+      <c r="H56" s="274"/>
+      <c r="I56" s="274"/>
       <c r="J56" s="90"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25096,7 +25093,7 @@
       <c r="G57" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="289">
+      <c r="H57" s="246">
         <v>42707</v>
       </c>
       <c r="I57" s="157"/>
@@ -25111,10 +25108,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="131" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D58" s="97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E58" s="140"/>
       <c r="F58" s="95" t="s">
@@ -25123,7 +25120,7 @@
       <c r="G58" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="289">
+      <c r="H58" s="246">
         <v>42707</v>
       </c>
       <c r="I58" s="140"/>
@@ -25150,7 +25147,7 @@
       <c r="G59" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="289">
+      <c r="H59" s="246">
         <v>42707</v>
       </c>
       <c r="I59" s="140"/>
@@ -25177,7 +25174,7 @@
       <c r="G60" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="289">
+      <c r="H60" s="246">
         <v>42707</v>
       </c>
       <c r="I60" s="142"/>
@@ -25188,13 +25185,13 @@
       <c r="B61" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="271"/>
-      <c r="D61" s="271"/>
-      <c r="E61" s="271"/>
-      <c r="F61" s="271"/>
-      <c r="G61" s="271"/>
-      <c r="H61" s="271"/>
-      <c r="I61" s="271"/>
+      <c r="C61" s="274"/>
+      <c r="D61" s="274"/>
+      <c r="E61" s="274"/>
+      <c r="F61" s="274"/>
+      <c r="G61" s="274"/>
+      <c r="H61" s="274"/>
+      <c r="I61" s="274"/>
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25206,10 +25203,10 @@
         <v>135</v>
       </c>
       <c r="C62" s="162" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D62" s="163" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E62" s="157"/>
       <c r="F62" s="95" t="s">
@@ -25218,7 +25215,7 @@
       <c r="G62" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="289">
+      <c r="H62" s="246">
         <v>42707</v>
       </c>
       <c r="I62" s="157"/>
@@ -25245,7 +25242,7 @@
       <c r="G63" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="289">
+      <c r="H63" s="246">
         <v>42707</v>
       </c>
       <c r="I63" s="140"/>
@@ -25271,13 +25268,13 @@
         <v>[Medicinal plants Article-55]</v>
       </c>
       <c r="B65" s="185" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C65" s="162" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D65" s="163" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E65" s="174"/>
       <c r="F65" s="95" t="s">
@@ -25286,7 +25283,7 @@
       <c r="G65" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="289">
+      <c r="H65" s="246">
         <v>42707</v>
       </c>
       <c r="I65" s="174"/>
@@ -25298,7 +25295,7 @@
         <v>[Medicinal plants Article-56]</v>
       </c>
       <c r="B66" s="161" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C66" s="97" t="s">
         <v>141</v>
@@ -25313,7 +25310,7 @@
       <c r="G66" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="289">
+      <c r="H66" s="246">
         <v>42707</v>
       </c>
       <c r="I66" s="140"/>
@@ -25322,7 +25319,7 @@
     <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="139"/>
       <c r="B67" s="166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C67" s="166"/>
       <c r="D67" s="164"/>
@@ -25339,13 +25336,13 @@
         <v>[Medicinal plants Article-58]</v>
       </c>
       <c r="B68" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>966</v>
+      </c>
+      <c r="D68" s="97" t="s">
         <v>297</v>
-      </c>
-      <c r="C68" s="97" t="s">
-        <v>967</v>
-      </c>
-      <c r="D68" s="97" t="s">
-        <v>298</v>
       </c>
       <c r="E68" s="140"/>
       <c r="F68" s="95" t="s">
@@ -25354,7 +25351,7 @@
       <c r="G68" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="289">
+      <c r="H68" s="246">
         <v>42707</v>
       </c>
       <c r="I68" s="140"/>
@@ -25366,13 +25363,13 @@
         <v>[Medicinal plants Article-59]</v>
       </c>
       <c r="B69" s="190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D69" s="243" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E69" s="140"/>
       <c r="F69" s="95" t="s">
@@ -25381,7 +25378,7 @@
       <c r="G69" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="289">
+      <c r="H69" s="246">
         <v>42707</v>
       </c>
       <c r="I69" s="140"/>
@@ -25390,7 +25387,7 @@
     <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="139"/>
       <c r="B70" s="166" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C70" s="166"/>
       <c r="D70" s="164"/>
@@ -25407,13 +25404,13 @@
         <v>[Medicinal plants Article-61]</v>
       </c>
       <c r="B71" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="97" t="s">
+        <v>968</v>
+      </c>
+      <c r="D71" s="97" t="s">
         <v>301</v>
-      </c>
-      <c r="C71" s="97" t="s">
-        <v>969</v>
-      </c>
-      <c r="D71" s="97" t="s">
-        <v>302</v>
       </c>
       <c r="E71" s="140"/>
       <c r="F71" s="95" t="s">
@@ -25422,7 +25419,7 @@
       <c r="G71" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="289">
+      <c r="H71" s="246">
         <v>42707</v>
       </c>
       <c r="I71" s="140"/>
@@ -25434,13 +25431,13 @@
         <v>[Medicinal plants Article-62]</v>
       </c>
       <c r="B72" s="107" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C72" s="137" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" s="97" t="s">
         <v>303</v>
-      </c>
-      <c r="D72" s="97" t="s">
-        <v>304</v>
       </c>
       <c r="E72" s="140"/>
       <c r="F72" s="95" t="s">
@@ -25449,7 +25446,7 @@
       <c r="G72" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="289">
+      <c r="H72" s="246">
         <v>42707</v>
       </c>
       <c r="I72" s="140"/>
@@ -25461,13 +25458,13 @@
         <v>[Medicinal plants Article-63]</v>
       </c>
       <c r="B73" s="107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D73" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E73" s="140"/>
       <c r="F73" s="95" t="s">
@@ -25476,7 +25473,7 @@
       <c r="G73" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="289">
+      <c r="H73" s="246">
         <v>42707</v>
       </c>
       <c r="I73" s="140"/>
@@ -25488,13 +25485,13 @@
         <v>[Medicinal plants Article-64]</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C74" s="97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D74" s="97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E74" s="140"/>
       <c r="F74" s="95" t="s">
@@ -25503,7 +25500,7 @@
       <c r="G74" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="289">
+      <c r="H74" s="246">
         <v>42707</v>
       </c>
       <c r="I74" s="140"/>
@@ -25515,13 +25512,13 @@
         <v>[Medicinal plants Article-65]</v>
       </c>
       <c r="B75" s="97" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="C75" s="97" t="s">
+      <c r="D75" s="97" t="s">
         <v>313</v>
-      </c>
-      <c r="D75" s="97" t="s">
-        <v>314</v>
       </c>
       <c r="E75" s="140"/>
       <c r="F75" s="95" t="s">
@@ -25530,7 +25527,7 @@
       <c r="G75" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="289">
+      <c r="H75" s="246">
         <v>42707</v>
       </c>
       <c r="I75" s="140"/>
@@ -25542,13 +25539,13 @@
         <v>[Medicinal plants Article-66]</v>
       </c>
       <c r="B76" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="C76" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="C76" s="97" t="s">
+      <c r="D76" s="97" t="s">
         <v>316</v>
-      </c>
-      <c r="D76" s="97" t="s">
-        <v>317</v>
       </c>
       <c r="E76" s="140"/>
       <c r="F76" s="238" t="s">
@@ -25557,7 +25554,7 @@
       <c r="G76" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="289">
+      <c r="H76" s="246">
         <v>42707</v>
       </c>
       <c r="I76" s="140"/>
@@ -25568,16 +25565,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="C61:I61"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="C61:I61"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F65:G66 F71:G76 F12:G31 F46:G49 F57:G60 F33:G44 F62:G63 F51:G55 F68:G69">
@@ -25597,7 +25594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW74"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -25877,14 +25874,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="278" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -26135,14 +26132,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="278" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -26393,14 +26390,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -26658,11 +26655,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="277" t="s">
+      <c r="E5" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -26926,12 +26923,12 @@
         <f>COUNTIF(F12:G162,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="278">
+      <c r="E6" s="281">
         <f>COUNTA(A12:A162)*2</f>
         <v>110</v>
       </c>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -28477,7 +28474,7 @@
         <v>211</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E12" s="98"/>
       <c r="F12" s="95" t="s">
@@ -28486,8 +28483,8 @@
       <c r="G12" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="288" t="s">
-        <v>981</v>
+      <c r="H12" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I12" s="91"/>
       <c r="J12" s="90"/>
@@ -28504,7 +28501,7 @@
         <v>212</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E13" s="101"/>
       <c r="F13" s="95" t="s">
@@ -28513,8 +28510,8 @@
       <c r="G13" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="288" t="s">
-        <v>981</v>
+      <c r="H13" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I13" s="103"/>
       <c r="J13" s="90"/>
@@ -28528,10 +28525,10 @@
         <v>156</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="95" t="s">
@@ -28540,8 +28537,8 @@
       <c r="G14" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="288" t="s">
-        <v>981</v>
+      <c r="H14" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I14" s="103"/>
       <c r="J14" s="90"/>
@@ -28558,7 +28555,7 @@
         <v>213</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="95" t="s">
@@ -28567,8 +28564,8 @@
       <c r="G15" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="288" t="s">
-        <v>981</v>
+      <c r="H15" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I15" s="105"/>
       <c r="J15" s="90"/>
@@ -28585,7 +28582,7 @@
         <v>171</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E16" s="175"/>
       <c r="F16" s="95" t="s">
@@ -28594,8 +28591,8 @@
       <c r="G16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="288" t="s">
-        <v>981</v>
+      <c r="H16" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I16" s="175"/>
       <c r="J16" s="90"/>
@@ -28612,7 +28609,7 @@
         <v>169</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E17" s="151"/>
       <c r="F17" s="95" t="s">
@@ -28621,8 +28618,8 @@
       <c r="G17" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="288" t="s">
-        <v>981</v>
+      <c r="H17" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I17" s="151"/>
       <c r="J17" s="90"/>
@@ -28639,7 +28636,7 @@
         <v>170</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E18" s="151"/>
       <c r="F18" s="95" t="s">
@@ -28648,8 +28645,8 @@
       <c r="G18" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="288" t="s">
-        <v>981</v>
+      <c r="H18" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I18" s="151"/>
       <c r="J18" s="90"/>
@@ -28666,7 +28663,7 @@
         <v>215</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E19" s="176"/>
       <c r="F19" s="95" t="s">
@@ -28675,8 +28672,8 @@
       <c r="G19" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="288" t="s">
-        <v>981</v>
+      <c r="H19" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I19" s="157"/>
       <c r="J19" s="90"/>
@@ -28693,7 +28690,7 @@
         <v>203</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E20" s="144"/>
       <c r="F20" s="95" t="s">
@@ -28702,8 +28699,8 @@
       <c r="G20" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="288" t="s">
-        <v>981</v>
+      <c r="H20" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I20" s="140"/>
       <c r="J20" s="90"/>
@@ -28720,7 +28717,7 @@
         <v>216</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E21" s="144"/>
       <c r="F21" s="95" t="s">
@@ -28729,8 +28726,8 @@
       <c r="G21" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="288" t="s">
-        <v>981</v>
+      <c r="H21" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I21" s="140"/>
       <c r="J21" s="90"/>
@@ -28747,7 +28744,7 @@
         <v>204</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E22" s="171"/>
       <c r="F22" s="95" t="s">
@@ -28756,8 +28753,8 @@
       <c r="G22" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="288" t="s">
-        <v>981</v>
+      <c r="H22" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I22" s="172"/>
       <c r="J22" s="90"/>
@@ -28774,7 +28771,7 @@
         <v>205</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E23" s="151"/>
       <c r="F23" s="95" t="s">
@@ -28783,8 +28780,8 @@
       <c r="G23" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="288" t="s">
-        <v>981</v>
+      <c r="H23" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="90"/>
@@ -28801,7 +28798,7 @@
         <v>217</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E24" s="151"/>
       <c r="F24" s="95" t="s">
@@ -28810,8 +28807,8 @@
       <c r="G24" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="288" t="s">
-        <v>981</v>
+      <c r="H24" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I24" s="151"/>
       <c r="J24" s="90"/>
@@ -28828,7 +28825,7 @@
         <v>206</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E25" s="172"/>
       <c r="F25" s="95" t="s">
@@ -28837,8 +28834,8 @@
       <c r="G25" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="288" t="s">
-        <v>981</v>
+      <c r="H25" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I25" s="172"/>
       <c r="J25" s="90"/>
@@ -28855,7 +28852,7 @@
         <v>208</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E26" s="172"/>
       <c r="F26" s="95" t="s">
@@ -28864,8 +28861,8 @@
       <c r="G26" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="288" t="s">
-        <v>981</v>
+      <c r="H26" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I26" s="172"/>
       <c r="J26" s="90"/>
@@ -28882,7 +28879,7 @@
         <v>207</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E27" s="140"/>
       <c r="F27" s="95" t="s">
@@ -28891,8 +28888,8 @@
       <c r="G27" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="288" t="s">
-        <v>981</v>
+      <c r="H27" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I27" s="140"/>
       <c r="J27" s="90"/>
@@ -28909,7 +28906,7 @@
         <v>210</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E28" s="140"/>
       <c r="F28" s="95" t="s">
@@ -28918,8 +28915,8 @@
       <c r="G28" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="288" t="s">
-        <v>981</v>
+      <c r="H28" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I28" s="140"/>
       <c r="J28" s="90"/>
@@ -28936,7 +28933,7 @@
         <v>209</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E29" s="151"/>
       <c r="F29" s="95" t="s">
@@ -28945,8 +28942,8 @@
       <c r="G29" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="288" t="s">
-        <v>981</v>
+      <c r="H29" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="90"/>
@@ -28956,13 +28953,13 @@
       <c r="B30" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="267"/>
-      <c r="I30" s="268"/>
+      <c r="C30" s="270"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="270"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="271"/>
       <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28977,7 +28974,7 @@
         <v>220</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E31" s="140"/>
       <c r="F31" s="95" t="s">
@@ -28986,8 +28983,8 @@
       <c r="G31" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="288" t="s">
-        <v>981</v>
+      <c r="H31" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I31" s="140"/>
       <c r="J31" s="90"/>
@@ -29004,7 +29001,7 @@
         <v>172</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E32" s="140"/>
       <c r="F32" s="95" t="s">
@@ -29013,8 +29010,8 @@
       <c r="G32" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="288" t="s">
-        <v>981</v>
+      <c r="H32" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I32" s="140"/>
       <c r="J32" s="90"/>
@@ -29031,7 +29028,7 @@
         <v>173</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E33" s="140"/>
       <c r="F33" s="95" t="s">
@@ -29040,8 +29037,8 @@
       <c r="G33" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="288" t="s">
-        <v>981</v>
+      <c r="H33" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I33" s="140"/>
       <c r="J33" s="90"/>
@@ -29058,7 +29055,7 @@
         <v>174</v>
       </c>
       <c r="D34" s="97" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E34" s="140"/>
       <c r="F34" s="95" t="s">
@@ -29067,8 +29064,8 @@
       <c r="G34" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="288" t="s">
-        <v>981</v>
+      <c r="H34" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I34" s="140"/>
       <c r="J34" s="90"/>
@@ -29085,7 +29082,7 @@
         <v>175</v>
       </c>
       <c r="D35" s="97" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E35" s="140"/>
       <c r="F35" s="95" t="s">
@@ -29094,8 +29091,8 @@
       <c r="G35" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="288" t="s">
-        <v>981</v>
+      <c r="H35" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I35" s="140"/>
       <c r="J35" s="90"/>
@@ -29112,7 +29109,7 @@
         <v>176</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E36" s="140"/>
       <c r="F36" s="95" t="s">
@@ -29121,8 +29118,8 @@
       <c r="G36" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="288" t="s">
-        <v>981</v>
+      <c r="H36" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I36" s="140"/>
       <c r="J36" s="90"/>
@@ -29139,7 +29136,7 @@
         <v>177</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E37" s="140"/>
       <c r="F37" s="95" t="s">
@@ -29148,8 +29145,8 @@
       <c r="G37" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="288" t="s">
-        <v>981</v>
+      <c r="H37" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I37" s="140"/>
       <c r="J37" s="90"/>
@@ -29166,7 +29163,7 @@
         <v>178</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E38" s="140"/>
       <c r="F38" s="95" t="s">
@@ -29175,8 +29172,8 @@
       <c r="G38" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="288" t="s">
-        <v>981</v>
+      <c r="H38" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I38" s="140"/>
       <c r="J38" s="90"/>
@@ -29193,7 +29190,7 @@
         <v>179</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E39" s="140"/>
       <c r="F39" s="95" t="s">
@@ -29202,8 +29199,8 @@
       <c r="G39" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="288" t="s">
-        <v>981</v>
+      <c r="H39" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I39" s="140"/>
       <c r="J39" s="90"/>
@@ -29220,7 +29217,7 @@
         <v>180</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E40" s="140"/>
       <c r="F40" s="95" t="s">
@@ -29229,8 +29226,8 @@
       <c r="G40" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="288" t="s">
-        <v>981</v>
+      <c r="H40" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I40" s="140"/>
       <c r="J40" s="90"/>
@@ -29247,7 +29244,7 @@
         <v>181</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E41" s="151"/>
       <c r="F41" s="95" t="s">
@@ -29256,8 +29253,8 @@
       <c r="G41" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="288" t="s">
-        <v>981</v>
+      <c r="H41" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I41" s="151"/>
       <c r="J41" s="90"/>
@@ -29274,7 +29271,7 @@
         <v>182</v>
       </c>
       <c r="D42" s="138" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E42" s="140"/>
       <c r="F42" s="95" t="s">
@@ -29283,8 +29280,8 @@
       <c r="G42" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="288" t="s">
-        <v>981</v>
+      <c r="H42" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I42" s="140"/>
       <c r="J42" s="90"/>
@@ -29294,13 +29291,13 @@
       <c r="B43" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="267"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="267"/>
-      <c r="F43" s="267"/>
-      <c r="G43" s="267"/>
-      <c r="H43" s="267"/>
-      <c r="I43" s="268"/>
+      <c r="C43" s="270"/>
+      <c r="D43" s="270"/>
+      <c r="E43" s="270"/>
+      <c r="F43" s="270"/>
+      <c r="G43" s="270"/>
+      <c r="H43" s="270"/>
+      <c r="I43" s="271"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -29315,7 +29312,7 @@
         <v>183</v>
       </c>
       <c r="D44" s="156" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E44" s="140"/>
       <c r="F44" s="95" t="s">
@@ -29324,8 +29321,8 @@
       <c r="G44" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="288" t="s">
-        <v>981</v>
+      <c r="H44" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I44" s="140"/>
       <c r="J44" s="90"/>
@@ -29351,8 +29348,8 @@
       <c r="G45" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="288" t="s">
-        <v>981</v>
+      <c r="H45" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I45" s="140"/>
       <c r="J45" s="90"/>
@@ -29366,13 +29363,13 @@
         <v>105</v>
       </c>
       <c r="C46" s="154" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D46" s="104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E46" s="217" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F46" s="95" t="s">
         <v>22</v>
@@ -29380,8 +29377,8 @@
       <c r="G46" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="288" t="s">
-        <v>981</v>
+      <c r="H46" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I46" s="142"/>
       <c r="J46" s="90"/>
@@ -29401,7 +29398,7 @@
         <v>185</v>
       </c>
       <c r="E47" s="217" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F47" s="95" t="s">
         <v>22</v>
@@ -29409,24 +29406,24 @@
       <c r="G47" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="288" t="s">
-        <v>981</v>
+      <c r="H47" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I47" s="177"/>
       <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="139"/>
-      <c r="B48" s="282" t="s">
+      <c r="B48" s="285" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="283"/>
-      <c r="D48" s="283"/>
-      <c r="E48" s="283"/>
-      <c r="F48" s="283"/>
-      <c r="G48" s="283"/>
-      <c r="H48" s="283"/>
-      <c r="I48" s="284"/>
+      <c r="C48" s="286"/>
+      <c r="D48" s="286"/>
+      <c r="E48" s="286"/>
+      <c r="F48" s="286"/>
+      <c r="G48" s="286"/>
+      <c r="H48" s="286"/>
+      <c r="I48" s="287"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -29450,8 +29447,8 @@
       <c r="G49" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="288" t="s">
-        <v>981</v>
+      <c r="H49" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I49" s="178"/>
       <c r="J49" s="90"/>
@@ -29477,8 +29474,8 @@
       <c r="G50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="288" t="s">
-        <v>981</v>
+      <c r="H50" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I50" s="174"/>
       <c r="J50" s="90"/>
@@ -29504,8 +29501,8 @@
       <c r="G51" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="288" t="s">
-        <v>981</v>
+      <c r="H51" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I51" s="151"/>
       <c r="J51" s="90"/>
@@ -29531,8 +29528,8 @@
       <c r="G52" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="288" t="s">
-        <v>981</v>
+      <c r="H52" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I52" s="157"/>
       <c r="J52" s="90"/>
@@ -29546,10 +29543,10 @@
         <v>115</v>
       </c>
       <c r="C53" s="131" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E53" s="140"/>
       <c r="F53" s="95" t="s">
@@ -29558,24 +29555,24 @@
       <c r="G53" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="288" t="s">
-        <v>981</v>
+      <c r="H53" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I53" s="140"/>
       <c r="J53" s="90"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="139"/>
-      <c r="B54" s="279" t="s">
+      <c r="B54" s="282" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="280"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="280"/>
-      <c r="F54" s="280"/>
-      <c r="G54" s="280"/>
-      <c r="H54" s="280"/>
-      <c r="I54" s="281"/>
+      <c r="C54" s="283"/>
+      <c r="D54" s="283"/>
+      <c r="E54" s="283"/>
+      <c r="F54" s="283"/>
+      <c r="G54" s="283"/>
+      <c r="H54" s="283"/>
+      <c r="I54" s="284"/>
       <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -29599,8 +29596,8 @@
       <c r="G55" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="288" t="s">
-        <v>981</v>
+      <c r="H55" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I55" s="140"/>
       <c r="J55" s="90"/>
@@ -29614,10 +29611,10 @@
         <v>122</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D56" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E56" s="140"/>
       <c r="F56" s="95" t="s">
@@ -29626,8 +29623,8 @@
       <c r="G56" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="288" t="s">
-        <v>981</v>
+      <c r="H56" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I56" s="140"/>
       <c r="J56" s="90"/>
@@ -29653,8 +29650,8 @@
       <c r="G57" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="288" t="s">
-        <v>981</v>
+      <c r="H57" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I57" s="140"/>
       <c r="J57" s="90"/>
@@ -29680,24 +29677,24 @@
       <c r="G58" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="288" t="s">
-        <v>981</v>
+      <c r="H58" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I58" s="140"/>
       <c r="J58" s="90"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="139"/>
-      <c r="B59" s="279" t="s">
+      <c r="B59" s="282" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="280"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="280"/>
-      <c r="F59" s="280"/>
-      <c r="G59" s="280"/>
-      <c r="H59" s="280"/>
-      <c r="I59" s="281"/>
+      <c r="C59" s="283"/>
+      <c r="D59" s="283"/>
+      <c r="E59" s="283"/>
+      <c r="F59" s="283"/>
+      <c r="G59" s="283"/>
+      <c r="H59" s="283"/>
+      <c r="I59" s="284"/>
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -29709,10 +29706,10 @@
         <v>135</v>
       </c>
       <c r="C60" s="136" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D60" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E60" s="151"/>
       <c r="F60" s="95" t="s">
@@ -29721,8 +29718,8 @@
       <c r="G60" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="288" t="s">
-        <v>981</v>
+      <c r="H60" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I60" s="151"/>
       <c r="J60" s="90"/>
@@ -29748,8 +29745,8 @@
       <c r="G61" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="288" t="s">
-        <v>981</v>
+      <c r="H61" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I61" s="151"/>
       <c r="J61" s="90"/>
@@ -29777,10 +29774,10 @@
         <v>139</v>
       </c>
       <c r="C63" s="167" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D63" s="163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E63" s="174"/>
       <c r="F63" s="95" t="s">
@@ -29789,8 +29786,8 @@
       <c r="G63" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="288" t="s">
-        <v>981</v>
+      <c r="H63" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I63" s="191"/>
       <c r="J63" s="90"/>
@@ -29816,24 +29813,24 @@
       <c r="G64" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H64" s="288" t="s">
-        <v>981</v>
+      <c r="H64" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I64" s="140"/>
       <c r="J64" s="90"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="139"/>
-      <c r="B65" s="272" t="s">
-        <v>296</v>
-      </c>
-      <c r="C65" s="273"/>
-      <c r="D65" s="273"/>
-      <c r="E65" s="273"/>
-      <c r="F65" s="273"/>
-      <c r="G65" s="273"/>
-      <c r="H65" s="273"/>
-      <c r="I65" s="274"/>
+      <c r="B65" s="275" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" s="276"/>
+      <c r="D65" s="276"/>
+      <c r="E65" s="276"/>
+      <c r="F65" s="276"/>
+      <c r="G65" s="276"/>
+      <c r="H65" s="276"/>
+      <c r="I65" s="277"/>
       <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -29842,13 +29839,13 @@
         <v>[Remedy Article-56]</v>
       </c>
       <c r="B66" s="97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D66" s="97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E66" s="140"/>
       <c r="F66" s="95" t="s">
@@ -29857,8 +29854,8 @@
       <c r="G66" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="288" t="s">
-        <v>981</v>
+      <c r="H66" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I66" s="140"/>
       <c r="J66" s="90"/>
@@ -29869,13 +29866,13 @@
         <v>[Remedy Article-57]</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D67" s="215" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E67" s="140"/>
       <c r="F67" s="95" t="s">
@@ -29884,24 +29881,24 @@
       <c r="G67" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H67" s="288" t="s">
-        <v>981</v>
+      <c r="H67" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I67" s="140"/>
       <c r="J67" s="90"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="139"/>
-      <c r="B68" s="272" t="s">
-        <v>299</v>
-      </c>
-      <c r="C68" s="273"/>
-      <c r="D68" s="273"/>
-      <c r="E68" s="273"/>
-      <c r="F68" s="273"/>
-      <c r="G68" s="273"/>
-      <c r="H68" s="273"/>
-      <c r="I68" s="274"/>
+      <c r="B68" s="275" t="s">
+        <v>298</v>
+      </c>
+      <c r="C68" s="276"/>
+      <c r="D68" s="276"/>
+      <c r="E68" s="276"/>
+      <c r="F68" s="276"/>
+      <c r="G68" s="276"/>
+      <c r="H68" s="276"/>
+      <c r="I68" s="277"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="96" t="str">
@@ -29909,13 +29906,13 @@
         <v>[Remedy Article-59]</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D69" s="97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E69" s="140"/>
       <c r="F69" s="95" t="s">
@@ -29924,8 +29921,8 @@
       <c r="G69" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="288" t="s">
-        <v>981</v>
+      <c r="H69" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I69" s="140"/>
     </row>
@@ -29935,13 +29932,13 @@
         <v>[Remedy Article-60]</v>
       </c>
       <c r="B70" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D70" s="97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E70" s="140"/>
       <c r="F70" s="95" t="s">
@@ -29950,8 +29947,8 @@
       <c r="G70" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="288" t="s">
-        <v>981</v>
+      <c r="H70" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I70" s="140"/>
     </row>
@@ -29961,13 +29958,13 @@
         <v>[Remedy Article-61]</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D71" s="97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E71" s="140"/>
       <c r="F71" s="95" t="s">
@@ -29976,8 +29973,8 @@
       <c r="G71" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="288" t="s">
-        <v>981</v>
+      <c r="H71" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I71" s="140"/>
     </row>
@@ -29987,13 +29984,13 @@
         <v>[Remedy Article-62]</v>
       </c>
       <c r="B72" s="97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C72" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" s="97" t="s">
         <v>321</v>
-      </c>
-      <c r="D72" s="97" t="s">
-        <v>322</v>
       </c>
       <c r="E72" s="140"/>
       <c r="F72" s="95" t="s">
@@ -30002,8 +29999,8 @@
       <c r="G72" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="288" t="s">
-        <v>981</v>
+      <c r="H72" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I72" s="140"/>
     </row>
@@ -30013,13 +30010,13 @@
         <v>[Remedy Article-63]</v>
       </c>
       <c r="B73" s="97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D73" s="97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E73" s="140"/>
       <c r="F73" s="95" t="s">
@@ -30028,8 +30025,8 @@
       <c r="G73" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="288" t="s">
-        <v>981</v>
+      <c r="H73" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I73" s="140"/>
     </row>
@@ -30039,13 +30036,13 @@
         <v>[Remedy Article-64]</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C74" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" s="97" t="s">
         <v>324</v>
-      </c>
-      <c r="D74" s="97" t="s">
-        <v>325</v>
       </c>
       <c r="E74" s="140"/>
       <c r="F74" s="238" t="s">
@@ -30054,8 +30051,8 @@
       <c r="G74" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="288" t="s">
-        <v>981</v>
+      <c r="H74" s="245" t="s">
+        <v>980</v>
       </c>
       <c r="I74" s="140"/>
     </row>
@@ -30372,14 +30369,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="B2" s="278" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -30630,14 +30627,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="275" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
+      <c r="B3" s="278" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -30888,14 +30885,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -31153,11 +31150,11 @@
       <c r="D5" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="277" t="s">
+      <c r="E5" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -31421,12 +31418,12 @@
         <f>COUNTIF(F12:G121,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="278">
+      <c r="E6" s="281">
         <f>COUNTA(A12:A124)*2</f>
         <v>22</v>
       </c>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -32709,7 +32706,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -32966,13 +32963,13 @@
         <v>[Herbal medicine store-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D12" s="241" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E12" s="98"/>
       <c r="F12" s="107" t="s">
@@ -32981,7 +32978,7 @@
       <c r="G12" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="288">
+      <c r="H12" s="245">
         <v>42677</v>
       </c>
       <c r="I12" s="91"/>
@@ -32993,13 +32990,13 @@
         <v>[Herbal medicine store-3]</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" s="136" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D13" s="215" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E13" s="101"/>
       <c r="F13" s="107" t="s">
@@ -33008,7 +33005,7 @@
       <c r="G13" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="288">
+      <c r="H13" s="245">
         <v>42677</v>
       </c>
       <c r="I13" s="103"/>
@@ -33020,13 +33017,13 @@
         <v>[Herbal medicine store-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D14" s="150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="107" t="s">
@@ -33035,7 +33032,7 @@
       <c r="G14" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="288">
+      <c r="H14" s="245">
         <v>42677</v>
       </c>
       <c r="I14" s="103"/>
@@ -33044,7 +33041,7 @@
     <row r="15" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
@@ -33301,13 +33298,13 @@
         <v>[Herbal medicine store-6]</v>
       </c>
       <c r="B16" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="137" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="137" t="s">
-        <v>249</v>
-      </c>
       <c r="D16" s="97" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E16" s="170"/>
       <c r="F16" s="107" t="s">
@@ -33316,7 +33313,7 @@
       <c r="G16" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="288">
+      <c r="H16" s="245">
         <v>42677</v>
       </c>
       <c r="I16" s="170"/>
@@ -33328,13 +33325,13 @@
         <v>[Herbal medicine store-7]</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E17" s="151"/>
       <c r="F17" s="107" t="s">
@@ -33343,7 +33340,7 @@
       <c r="G17" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="288">
+      <c r="H17" s="245">
         <v>42677</v>
       </c>
       <c r="I17" s="151"/>
@@ -33355,13 +33352,13 @@
         <v>[Herbal medicine store-8]</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D18" s="215" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E18" s="151"/>
       <c r="F18" s="107" t="s">
@@ -33370,7 +33367,7 @@
       <c r="G18" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="288">
+      <c r="H18" s="245">
         <v>42677</v>
       </c>
       <c r="I18" s="151"/>
@@ -33382,13 +33379,13 @@
         <v>[Herbal medicine store-9]</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D19" s="215" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E19" s="171"/>
       <c r="F19" s="107" t="s">
@@ -33397,7 +33394,7 @@
       <c r="G19" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="288">
+      <c r="H19" s="245">
         <v>42677</v>
       </c>
       <c r="I19" s="172"/>
@@ -33409,13 +33406,13 @@
         <v>[Herbal medicine store-10]</v>
       </c>
       <c r="B20" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="137" t="s">
-        <v>255</v>
-      </c>
       <c r="D20" s="97" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E20" s="171"/>
       <c r="F20" s="107" t="s">
@@ -33424,7 +33421,7 @@
       <c r="G20" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="288">
+      <c r="H20" s="245">
         <v>42677</v>
       </c>
       <c r="I20" s="172"/>
@@ -33436,13 +33433,13 @@
         <v>[Herbal medicine store-11]</v>
       </c>
       <c r="B21" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="137" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="137" t="s">
-        <v>257</v>
-      </c>
       <c r="D21" s="97" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E21" s="171"/>
       <c r="F21" s="107" t="s">
@@ -33451,7 +33448,7 @@
       <c r="G21" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="288">
+      <c r="H21" s="245">
         <v>42677</v>
       </c>
       <c r="I21" s="172"/>
@@ -33477,13 +33474,13 @@
         <v>[Herbal medicine store-13]</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="242" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E23" s="151"/>
       <c r="F23" s="107" t="s">
@@ -33492,7 +33489,7 @@
       <c r="G23" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="288">
+      <c r="H23" s="245">
         <v>42677</v>
       </c>
       <c r="I23" s="151"/>
@@ -33504,13 +33501,13 @@
         <v>[Herbal medicine store-14]</v>
       </c>
       <c r="B24" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="C24" s="137" t="s">
-        <v>260</v>
-      </c>
       <c r="D24" s="97" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E24" s="151"/>
       <c r="F24" s="107" t="s">
@@ -33519,7 +33516,7 @@
       <c r="G24" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="288">
+      <c r="H24" s="245">
         <v>42677</v>
       </c>
       <c r="I24" s="151"/>
@@ -33836,14 +33833,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="275" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="B2" s="278" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -34094,14 +34091,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="275" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
+      <c r="B3" s="278" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -34352,14 +34349,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -34617,11 +34614,11 @@
       <c r="D5" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="277" t="s">
+      <c r="E5" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -34885,12 +34882,12 @@
         <f>COUNTIF(F12:G129,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="278">
+      <c r="E6" s="281">
         <f>COUNTA(A12:A129)*2</f>
         <v>64</v>
       </c>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -36173,7 +36170,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -36430,13 +36427,13 @@
         <v>[Personal Page-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E12" s="98"/>
       <c r="F12" s="107" t="s">
@@ -36446,7 +36443,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I12" s="91"/>
       <c r="J12" s="90"/>
@@ -36457,13 +36454,13 @@
         <v>[Personal Page-3]</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C13" s="136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E13" s="101"/>
       <c r="F13" s="107" t="s">
@@ -36473,7 +36470,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I13" s="103"/>
       <c r="J13" s="90"/>
@@ -36481,7 +36478,7 @@
     <row r="14" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -36498,13 +36495,13 @@
         <v>[Personal Page-5]</v>
       </c>
       <c r="B15" s="240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="95" t="s">
@@ -36514,7 +36511,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I15" s="105"/>
       <c r="J15" s="90"/>
@@ -36525,13 +36522,13 @@
         <v>[Personal Page-6]</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E16" s="175"/>
       <c r="F16" s="95" t="s">
@@ -36541,7 +36538,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I16" s="175"/>
       <c r="J16" s="90"/>
@@ -36552,13 +36549,13 @@
         <v>[Personal Page-7]</v>
       </c>
       <c r="B17" s="240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E17" s="175"/>
       <c r="F17" s="95" t="s">
@@ -36568,7 +36565,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I17" s="175"/>
       <c r="J17" s="90"/>
@@ -36579,13 +36576,13 @@
         <v>[Personal Page-8]</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E18" s="175"/>
       <c r="F18" s="95" t="s">
@@ -36595,7 +36592,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I18" s="175"/>
       <c r="J18" s="90"/>
@@ -36603,7 +36600,7 @@
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -36620,13 +36617,13 @@
         <v>[Personal Page-10]</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" s="137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E20" s="151"/>
       <c r="F20" s="95" t="s">
@@ -36636,7 +36633,7 @@
         <v>22</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="90"/>
@@ -36647,13 +36644,13 @@
         <v>[Personal Page-11]</v>
       </c>
       <c r="B21" s="107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C21" s="137" t="s">
         <v>215</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E21" s="176"/>
       <c r="F21" s="95" t="s">
@@ -36663,7 +36660,7 @@
         <v>22</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I21" s="157"/>
       <c r="J21" s="90"/>
@@ -36671,7 +36668,7 @@
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
@@ -36688,13 +36685,13 @@
         <v>[Personal Page-13]</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E23" s="144"/>
       <c r="F23" s="95" t="s">
@@ -36704,7 +36701,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I23" s="140"/>
       <c r="J23" s="90"/>
@@ -36715,13 +36712,13 @@
         <v>[Personal Page-14]</v>
       </c>
       <c r="B24" s="107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="137" t="s">
         <v>271</v>
       </c>
-      <c r="C24" s="137" t="s">
-        <v>272</v>
-      </c>
       <c r="D24" s="97" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E24" s="171"/>
       <c r="F24" s="95" t="s">
@@ -36731,7 +36728,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I24" s="172"/>
       <c r="J24" s="90"/>
@@ -36739,7 +36736,7 @@
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
@@ -36756,13 +36753,13 @@
         <v>[Personal Page-16]</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="215" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E26" s="151"/>
       <c r="F26" s="95" t="s">
@@ -36772,7 +36769,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I26" s="151"/>
       <c r="J26" s="90"/>
@@ -36783,13 +36780,13 @@
         <v>[Personal Page-17]</v>
       </c>
       <c r="B27" s="107" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="137" t="s">
-        <v>281</v>
-      </c>
       <c r="D27" s="97" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E27" s="172"/>
       <c r="F27" s="95" t="s">
@@ -36799,7 +36796,7 @@
         <v>22</v>
       </c>
       <c r="H27" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I27" s="172"/>
       <c r="J27" s="90"/>
@@ -36810,13 +36807,13 @@
         <v>[Personal Page-18]</v>
       </c>
       <c r="B28" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="137" t="s">
-        <v>283</v>
-      </c>
       <c r="D28" s="97" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E28" s="183"/>
       <c r="F28" s="95" t="s">
@@ -36826,7 +36823,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I28" s="172"/>
       <c r="J28" s="90"/>
@@ -36837,13 +36834,13 @@
         <v>[Personal Page-19]</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E29" s="140"/>
       <c r="F29" s="95" t="s">
@@ -36853,7 +36850,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I29" s="140"/>
       <c r="J29" s="90"/>
@@ -36864,13 +36861,13 @@
         <v>[Personal Page-20]</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D30" s="133" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="95" t="s">
@@ -36880,7 +36877,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I30" s="142"/>
       <c r="J30" s="90"/>
@@ -36891,13 +36888,13 @@
         <v>[Personal Page-21]</v>
       </c>
       <c r="B31" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="C31" s="97" t="s">
-        <v>289</v>
-      </c>
       <c r="D31" s="97" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="95" t="s">
@@ -36907,7 +36904,7 @@
         <v>24</v>
       </c>
       <c r="H31" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="90"/>
@@ -36918,13 +36915,13 @@
         <v>[Personal Page-22]</v>
       </c>
       <c r="B32" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="C32" s="182" t="s">
-        <v>291</v>
-      </c>
       <c r="D32" s="182" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E32" s="140"/>
       <c r="F32" s="95" t="s">
@@ -36934,7 +36931,7 @@
         <v>24</v>
       </c>
       <c r="H32" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I32" s="140"/>
       <c r="J32" s="90"/>
@@ -36945,13 +36942,13 @@
         <v>[Personal Page-23]</v>
       </c>
       <c r="B33" s="182" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="182" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="182" t="s">
-        <v>293</v>
-      </c>
       <c r="D33" s="182" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E33" s="140"/>
       <c r="F33" s="95" t="s">
@@ -36961,7 +36958,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I33" s="140"/>
       <c r="J33" s="90"/>
@@ -36972,13 +36969,13 @@
         <v>[Personal Page-24]</v>
       </c>
       <c r="B34" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="C34" s="182" t="s">
-        <v>295</v>
-      </c>
       <c r="D34" s="182" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E34" s="140"/>
       <c r="F34" s="95" t="s">
@@ -36988,14 +36985,14 @@
         <v>24</v>
       </c>
       <c r="H34" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I34" s="140"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C35" s="184"/>
       <c r="D35" s="184"/>
@@ -37011,13 +37008,13 @@
         <v>[Personal Page-26]</v>
       </c>
       <c r="B36" s="137" t="s">
+        <v>398</v>
+      </c>
+      <c r="C36" s="97" t="s">
         <v>399</v>
       </c>
-      <c r="C36" s="97" t="s">
-        <v>400</v>
-      </c>
       <c r="D36" s="215" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E36" s="151"/>
       <c r="F36" s="95" t="s">
@@ -37027,7 +37024,7 @@
         <v>24</v>
       </c>
       <c r="H36" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I36" s="151"/>
     </row>
@@ -37037,13 +37034,13 @@
         <v>[Personal Page-27]</v>
       </c>
       <c r="B37" s="137" t="s">
+        <v>400</v>
+      </c>
+      <c r="C37" s="97" t="s">
         <v>401</v>
       </c>
-      <c r="C37" s="97" t="s">
-        <v>402</v>
-      </c>
       <c r="D37" s="97" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E37" s="172"/>
       <c r="F37" s="95" t="s">
@@ -37053,7 +37050,7 @@
         <v>24</v>
       </c>
       <c r="H37" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I37" s="172"/>
     </row>
@@ -37063,13 +37060,13 @@
         <v>[Personal Page-28]</v>
       </c>
       <c r="B38" s="137" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="97" t="s">
         <v>403</v>
       </c>
-      <c r="C38" s="97" t="s">
-        <v>404</v>
-      </c>
       <c r="D38" s="97" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E38" s="172"/>
       <c r="F38" s="95" t="s">
@@ -37079,7 +37076,7 @@
         <v>24</v>
       </c>
       <c r="H38" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I38" s="172"/>
     </row>
@@ -37089,13 +37086,13 @@
         <v>[Personal Page-29]</v>
       </c>
       <c r="B39" s="137" t="s">
+        <v>418</v>
+      </c>
+      <c r="C39" s="97" t="s">
         <v>419</v>
       </c>
-      <c r="C39" s="97" t="s">
-        <v>420</v>
-      </c>
       <c r="D39" s="97" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E39" s="172"/>
       <c r="F39" s="95" t="s">
@@ -37105,7 +37102,7 @@
         <v>24</v>
       </c>
       <c r="H39" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I39" s="172"/>
     </row>
@@ -37115,13 +37112,13 @@
         <v>[Personal Page-30]</v>
       </c>
       <c r="B40" s="137" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E40" s="140"/>
       <c r="F40" s="95" t="s">
@@ -37131,7 +37128,7 @@
         <v>24</v>
       </c>
       <c r="H40" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I40" s="140"/>
     </row>
@@ -37141,13 +37138,13 @@
         <v>[Personal Page-31]</v>
       </c>
       <c r="B41" s="136" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E41" s="140"/>
       <c r="F41" s="95" t="s">
@@ -37157,7 +37154,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I41" s="140"/>
     </row>
@@ -37167,13 +37164,13 @@
         <v>[Personal Page-32]</v>
       </c>
       <c r="B42" s="206" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D42" s="97" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="95" t="s">
@@ -37183,7 +37180,7 @@
         <v>24</v>
       </c>
       <c r="H42" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I42" s="151"/>
     </row>
@@ -37193,13 +37190,13 @@
         <v>[Personal Page-33]</v>
       </c>
       <c r="B43" s="206" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" s="182" t="s">
         <v>411</v>
       </c>
-      <c r="C43" s="182" t="s">
-        <v>412</v>
-      </c>
       <c r="D43" s="182" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E43" s="140"/>
       <c r="F43" s="95" t="s">
@@ -37209,7 +37206,7 @@
         <v>24</v>
       </c>
       <c r="H43" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I43" s="140"/>
     </row>
@@ -37219,13 +37216,13 @@
         <v>[Personal Page-34]</v>
       </c>
       <c r="B44" s="182" t="s">
+        <v>412</v>
+      </c>
+      <c r="C44" s="182" t="s">
         <v>413</v>
       </c>
-      <c r="C44" s="182" t="s">
-        <v>414</v>
-      </c>
       <c r="D44" s="182" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E44" s="140"/>
       <c r="F44" s="95" t="s">
@@ -37235,7 +37232,7 @@
         <v>24</v>
       </c>
       <c r="H44" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I44" s="140"/>
     </row>
@@ -37245,13 +37242,13 @@
         <v>[Personal Page-35]</v>
       </c>
       <c r="B45" s="182" t="s">
+        <v>414</v>
+      </c>
+      <c r="C45" s="182" t="s">
         <v>415</v>
       </c>
-      <c r="C45" s="182" t="s">
-        <v>416</v>
-      </c>
       <c r="D45" s="182" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E45" s="140"/>
       <c r="F45" s="95" t="s">
@@ -37261,7 +37258,7 @@
         <v>24</v>
       </c>
       <c r="H45" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I45" s="140"/>
     </row>
@@ -37271,13 +37268,13 @@
         <v>[Personal Page-36]</v>
       </c>
       <c r="B46" s="182" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="182" t="s">
         <v>417</v>
       </c>
-      <c r="C46" s="182" t="s">
-        <v>418</v>
-      </c>
       <c r="D46" s="182" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E46" s="140"/>
       <c r="F46" s="95" t="s">
@@ -37287,7 +37284,7 @@
         <v>24</v>
       </c>
       <c r="H46" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I46" s="140"/>
     </row>
@@ -37297,13 +37294,13 @@
         <v>[Personal Page-37]</v>
       </c>
       <c r="B47" s="182" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C47" s="182" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" s="182" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E47" s="140"/>
       <c r="F47" s="95" t="s">
@@ -37313,7 +37310,7 @@
         <v>24</v>
       </c>
       <c r="H47" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I47" s="140"/>
     </row>
@@ -37323,13 +37320,13 @@
         <v>[Personal Page-38]</v>
       </c>
       <c r="B48" s="97" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" s="182" t="s">
         <v>421</v>
       </c>
-      <c r="C48" s="182" t="s">
-        <v>422</v>
-      </c>
       <c r="D48" s="182" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E48" s="140"/>
       <c r="F48" s="238" t="s">
@@ -37339,7 +37336,7 @@
         <v>24</v>
       </c>
       <c r="H48" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I48" s="140"/>
     </row>
@@ -37654,14 +37651,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="255" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="257"/>
+      <c r="B2" s="258" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="260"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -37912,14 +37909,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="258" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
+      <c r="B3" s="261" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -38170,14 +38167,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="258" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="260"/>
+      <c r="B4" s="261" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="263"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -38435,11 +38432,11 @@
       <c r="D5" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="E5" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="262"/>
-      <c r="G5" s="263"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="266"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -38703,12 +38700,12 @@
         <f>COUNTIF(F12:G101,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="264">
+      <c r="E6" s="267">
         <f>COUNTA(A12:A101)*2</f>
         <v>144</v>
       </c>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -39989,7 +39986,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="194"/>
       <c r="B11" s="194" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="195"/>
       <c r="D11" s="195"/>
@@ -40244,16 +40241,16 @@
         <v>[Authentication-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F12" s="107" t="s">
         <v>22</v>
@@ -40262,7 +40259,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I12" s="91"/>
       <c r="J12" s="90"/>
@@ -40273,16 +40270,16 @@
         <v>[Authentication-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D13" s="107" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F13" s="107" t="s">
         <v>22</v>
@@ -40291,7 +40288,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I13" s="91"/>
       <c r="J13" s="90"/>
@@ -40302,13 +40299,13 @@
         <v>[Authentication-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D14" s="107" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E14" s="107"/>
       <c r="F14" s="107" t="s">
@@ -40318,7 +40315,7 @@
         <v>22</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I14" s="91"/>
       <c r="J14" s="90"/>
@@ -40329,13 +40326,13 @@
         <v>[Authentication-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D15" s="107" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E15" s="107"/>
       <c r="F15" s="107" t="s">
@@ -40345,7 +40342,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I15" s="91"/>
       <c r="J15" s="90"/>
@@ -40356,13 +40353,13 @@
         <v>[Authentication-6]</v>
       </c>
       <c r="B16" s="97" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>721</v>
+      </c>
+      <c r="D16" s="107" t="s">
         <v>453</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>722</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>454</v>
       </c>
       <c r="E16" s="107"/>
       <c r="F16" s="107" t="s">
@@ -40372,7 +40369,7 @@
         <v>24</v>
       </c>
       <c r="H16" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I16" s="91"/>
       <c r="J16" s="90"/>
@@ -40383,13 +40380,13 @@
         <v>[Authentication-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E17" s="107"/>
       <c r="F17" s="107" t="s">
@@ -40399,7 +40396,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I17" s="91"/>
       <c r="J17" s="90"/>
@@ -40410,13 +40407,13 @@
         <v>[Authentication-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D18" s="107" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E18" s="107"/>
       <c r="F18" s="107" t="s">
@@ -40426,7 +40423,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I18" s="91"/>
       <c r="J18" s="90"/>
@@ -40437,13 +40434,13 @@
         <v>[Authentication-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D19" s="107" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E19" s="107"/>
       <c r="F19" s="107" t="s">
@@ -40453,7 +40450,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I19" s="91"/>
       <c r="J19" s="90"/>
@@ -40464,13 +40461,13 @@
         <v>[Authentication-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D20" s="107" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E20" s="107"/>
       <c r="F20" s="107" t="s">
@@ -40480,7 +40477,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I20" s="91"/>
       <c r="J20" s="90"/>
@@ -40491,13 +40488,13 @@
         <v>[Authentication-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D21" s="107" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E21" s="107"/>
       <c r="F21" s="107" t="s">
@@ -40507,7 +40504,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I21" s="91"/>
       <c r="J21" s="90"/>
@@ -40518,13 +40515,13 @@
         <v>[Authentication-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D22" s="107" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E22" s="107"/>
       <c r="F22" s="107" t="s">
@@ -40534,7 +40531,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I22" s="91"/>
       <c r="J22" s="90"/>
@@ -40545,13 +40542,13 @@
         <v>[Authentication-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D23" s="107" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E23" s="107"/>
       <c r="F23" s="107" t="s">
@@ -40561,7 +40558,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I23" s="91"/>
       <c r="J23" s="90"/>
@@ -40572,13 +40569,13 @@
         <v>[Authentication-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107" t="s">
@@ -40588,7 +40585,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I24" s="91"/>
       <c r="J24" s="90"/>
@@ -40599,13 +40596,13 @@
         <v>[Authentication-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D25" s="107" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E25" s="107"/>
       <c r="F25" s="107" t="s">
@@ -40615,7 +40612,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I25" s="91"/>
       <c r="J25" s="90"/>
@@ -40623,7 +40620,7 @@
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="194"/>
       <c r="B26" s="194" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C26" s="195"/>
       <c r="D26" s="195"/>
@@ -40640,16 +40637,16 @@
         <v>[Authentication-17]</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C27" s="107" t="s">
+        <v>461</v>
+      </c>
+      <c r="D27" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="D27" s="107" t="s">
-        <v>463</v>
-      </c>
       <c r="E27" s="107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F27" s="107" t="s">
         <v>22</v>
@@ -40658,7 +40655,7 @@
         <v>22</v>
       </c>
       <c r="H27" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I27" s="91"/>
       <c r="J27" s="90"/>
@@ -40666,7 +40663,7 @@
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="194"/>
       <c r="B28" s="194" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C28" s="195"/>
       <c r="D28" s="195"/>
@@ -40683,13 +40680,13 @@
         <v>[Authentication-19]</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D29" s="107" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E29" s="107"/>
       <c r="F29" s="107" t="s">
@@ -40699,7 +40696,7 @@
         <v>22</v>
       </c>
       <c r="H29" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I29" s="91"/>
       <c r="J29" s="90"/>
@@ -40710,13 +40707,13 @@
         <v>[Authentication-20]</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E30" s="107"/>
       <c r="F30" s="107" t="s">
@@ -40726,7 +40723,7 @@
         <v>22</v>
       </c>
       <c r="H30" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I30" s="91"/>
       <c r="J30" s="90"/>
@@ -40737,13 +40734,13 @@
         <v>[Authentication-21]</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D31" s="107" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E31" s="107"/>
       <c r="F31" s="107" t="s">
@@ -40753,7 +40750,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I31" s="91"/>
       <c r="J31" s="90"/>
@@ -40764,13 +40761,13 @@
         <v>[Authentication-22]</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D32" s="107" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E32" s="107"/>
       <c r="F32" s="107" t="s">
@@ -40780,7 +40777,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I32" s="91"/>
       <c r="J32" s="90"/>
@@ -40791,13 +40788,13 @@
         <v>[Authentication-23]</v>
       </c>
       <c r="B33" s="107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D33" s="107" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E33" s="107"/>
       <c r="F33" s="107" t="s">
@@ -40807,7 +40804,7 @@
         <v>22</v>
       </c>
       <c r="H33" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I33" s="91"/>
       <c r="J33" s="90"/>
@@ -40818,13 +40815,13 @@
         <v>[Authentication-24]</v>
       </c>
       <c r="B34" s="107" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D34" s="107" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E34" s="107"/>
       <c r="F34" s="107" t="s">
@@ -40834,7 +40831,7 @@
         <v>22</v>
       </c>
       <c r="H34" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I34" s="91"/>
       <c r="J34" s="90"/>
@@ -40845,13 +40842,13 @@
         <v>[Authentication-25]</v>
       </c>
       <c r="B35" s="107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D35" s="107" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E35" s="107"/>
       <c r="F35" s="107" t="s">
@@ -40861,7 +40858,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I35" s="91"/>
       <c r="J35" s="90"/>
@@ -40872,13 +40869,13 @@
         <v>[Authentication-26]</v>
       </c>
       <c r="B36" s="107" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D36" s="107" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E36" s="107"/>
       <c r="F36" s="107" t="s">
@@ -40888,7 +40885,7 @@
         <v>24</v>
       </c>
       <c r="H36" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I36" s="91"/>
       <c r="J36" s="90"/>
@@ -40899,13 +40896,13 @@
         <v>[Authentication-27]</v>
       </c>
       <c r="B37" s="107" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D37" s="107" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E37" s="107"/>
       <c r="F37" s="107" t="s">
@@ -40915,7 +40912,7 @@
         <v>24</v>
       </c>
       <c r="H37" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I37" s="91"/>
       <c r="J37" s="90"/>
@@ -40926,13 +40923,13 @@
         <v>[Authentication-28]</v>
       </c>
       <c r="B38" s="107" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D38" s="107" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E38" s="107"/>
       <c r="F38" s="107" t="s">
@@ -40942,7 +40939,7 @@
         <v>24</v>
       </c>
       <c r="H38" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I38" s="91"/>
       <c r="J38" s="90"/>
@@ -40953,13 +40950,13 @@
         <v>[Authentication-29]</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D39" s="107" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E39" s="107"/>
       <c r="F39" s="107" t="s">
@@ -40969,7 +40966,7 @@
         <v>24</v>
       </c>
       <c r="H39" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I39" s="91"/>
       <c r="J39" s="90"/>
@@ -40980,13 +40977,13 @@
         <v>[Authentication-30]</v>
       </c>
       <c r="B40" s="107" t="s">
+        <v>782</v>
+      </c>
+      <c r="C40" s="107" t="s">
         <v>783</v>
       </c>
-      <c r="C40" s="107" t="s">
-        <v>784</v>
-      </c>
       <c r="D40" s="107" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E40" s="107"/>
       <c r="F40" s="107" t="s">
@@ -40996,7 +40993,7 @@
         <v>22</v>
       </c>
       <c r="H40" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I40" s="91"/>
       <c r="J40" s="90"/>
@@ -41007,13 +41004,13 @@
         <v>[Authentication-31]</v>
       </c>
       <c r="B41" s="107" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D41" s="107" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E41" s="107"/>
       <c r="F41" s="107" t="s">
@@ -41023,7 +41020,7 @@
         <v>22</v>
       </c>
       <c r="H41" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I41" s="91"/>
       <c r="J41" s="90"/>
@@ -41034,13 +41031,13 @@
         <v>[Authentication-32]</v>
       </c>
       <c r="B42" s="107" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D42" s="107" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E42" s="107"/>
       <c r="F42" s="107" t="s">
@@ -41050,7 +41047,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I42" s="91"/>
       <c r="J42" s="90"/>
@@ -41061,13 +41058,13 @@
         <v>[Authentication-33]</v>
       </c>
       <c r="B43" s="107" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C43" s="107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D43" s="196" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E43" s="107"/>
       <c r="F43" s="107" t="s">
@@ -41077,7 +41074,7 @@
         <v>22</v>
       </c>
       <c r="H43" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I43" s="91"/>
       <c r="J43" s="90"/>
@@ -41088,13 +41085,13 @@
         <v>[Authentication-34]</v>
       </c>
       <c r="B44" s="107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C44" s="107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D44" s="196" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E44" s="107"/>
       <c r="F44" s="107" t="s">
@@ -41104,7 +41101,7 @@
         <v>22</v>
       </c>
       <c r="H44" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I44" s="91"/>
       <c r="J44" s="90"/>
@@ -41115,13 +41112,13 @@
         <v>[Authentication-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D45" s="138" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E45" s="97"/>
       <c r="F45" s="97" t="s">
@@ -41131,7 +41128,7 @@
         <v>22</v>
       </c>
       <c r="H45" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I45" s="211"/>
       <c r="J45" s="90"/>
@@ -41142,13 +41139,13 @@
         <v>[Authentication-36]</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C46" s="107" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D46" s="107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E46" s="97"/>
       <c r="F46" s="97" t="s">
@@ -41158,7 +41155,7 @@
         <v>22</v>
       </c>
       <c r="H46" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I46" s="103"/>
       <c r="J46" s="90"/>
@@ -41169,13 +41166,13 @@
         <v>[Authentication-37]</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C47" s="107" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D47" s="107" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E47" s="97"/>
       <c r="F47" s="97" t="s">
@@ -41185,7 +41182,7 @@
         <v>22</v>
       </c>
       <c r="H47" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I47" s="103"/>
       <c r="J47" s="90"/>
@@ -41196,13 +41193,13 @@
         <v>[Authentication-38]</v>
       </c>
       <c r="B48" s="107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C48" s="107" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D48" s="107" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E48" s="97"/>
       <c r="F48" s="97" t="s">
@@ -41212,7 +41209,7 @@
         <v>24</v>
       </c>
       <c r="H48" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I48" s="103"/>
       <c r="J48" s="90"/>
@@ -41223,13 +41220,13 @@
         <v>[Authentication-39]</v>
       </c>
       <c r="B49" s="107" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C49" s="107" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D49" s="107" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E49" s="97"/>
       <c r="F49" s="97" t="s">
@@ -41239,7 +41236,7 @@
         <v>24</v>
       </c>
       <c r="H49" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I49" s="103"/>
       <c r="J49" s="90"/>
@@ -41250,13 +41247,13 @@
         <v>[Authentication-40]</v>
       </c>
       <c r="B50" s="107" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D50" s="107" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E50" s="97"/>
       <c r="F50" s="97" t="s">
@@ -41266,7 +41263,7 @@
         <v>24</v>
       </c>
       <c r="H50" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I50" s="103"/>
       <c r="J50" s="90"/>
@@ -41277,13 +41274,13 @@
         <v>[Authentication-41]</v>
       </c>
       <c r="B51" s="107" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D51" s="107" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E51" s="97"/>
       <c r="F51" s="97" t="s">
@@ -41293,7 +41290,7 @@
         <v>24</v>
       </c>
       <c r="H51" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I51" s="103"/>
       <c r="J51" s="90"/>
@@ -41304,13 +41301,13 @@
         <v>[Authentication-42]</v>
       </c>
       <c r="B52" s="107" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D52" s="107" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E52" s="97"/>
       <c r="F52" s="97" t="s">
@@ -41320,7 +41317,7 @@
         <v>24</v>
       </c>
       <c r="H52" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I52" s="103"/>
       <c r="J52" s="90"/>
@@ -41331,13 +41328,13 @@
         <v>[Authentication-43]</v>
       </c>
       <c r="B53" s="107" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D53" s="107" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E53" s="97"/>
       <c r="F53" s="97" t="s">
@@ -41347,7 +41344,7 @@
         <v>22</v>
       </c>
       <c r="H53" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I53" s="103"/>
       <c r="J53" s="90"/>
@@ -41358,13 +41355,13 @@
         <v>[Authentication-44]</v>
       </c>
       <c r="B54" s="107" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D54" s="107" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E54" s="97"/>
       <c r="F54" s="97" t="s">
@@ -41374,7 +41371,7 @@
         <v>22</v>
       </c>
       <c r="H54" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I54" s="103"/>
       <c r="J54" s="90"/>
@@ -41385,13 +41382,13 @@
         <v>[Authentication-45]</v>
       </c>
       <c r="B55" s="107" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D55" s="107" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E55" s="97"/>
       <c r="F55" s="97" t="s">
@@ -41401,7 +41398,7 @@
         <v>22</v>
       </c>
       <c r="H55" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I55" s="103"/>
       <c r="J55" s="90"/>
@@ -41412,13 +41409,13 @@
         <v>[Authentication-46]</v>
       </c>
       <c r="B56" s="107" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D56" s="196" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E56" s="97"/>
       <c r="F56" s="97" t="s">
@@ -41428,7 +41425,7 @@
         <v>22</v>
       </c>
       <c r="H56" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I56" s="103"/>
       <c r="J56" s="90"/>
@@ -41439,13 +41436,13 @@
         <v>[Authentication-47]</v>
       </c>
       <c r="B57" s="107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D57" s="196" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E57" s="97"/>
       <c r="F57" s="97" t="s">
@@ -41455,7 +41452,7 @@
         <v>22</v>
       </c>
       <c r="H57" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I57" s="103"/>
       <c r="J57" s="90"/>
@@ -41466,13 +41463,13 @@
         <v>[Authentication-48]</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D58" s="138" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E58" s="97"/>
       <c r="F58" s="97" t="s">
@@ -41482,7 +41479,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I58" s="103"/>
       <c r="J58" s="90"/>
@@ -41490,7 +41487,7 @@
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="194"/>
       <c r="B59" s="194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C59" s="195"/>
       <c r="D59" s="195"/>
@@ -41507,13 +41504,13 @@
         <v>[Authentication-50]</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D60" s="107" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E60" s="107"/>
       <c r="F60" s="107" t="s">
@@ -41523,7 +41520,7 @@
         <v>24</v>
       </c>
       <c r="H60" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I60" s="91"/>
       <c r="J60" s="90"/>
@@ -41534,13 +41531,13 @@
         <v>[Authentication-51]</v>
       </c>
       <c r="B61" s="107" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D61" s="107" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E61" s="107"/>
       <c r="F61" s="107" t="s">
@@ -41550,7 +41547,7 @@
         <v>24</v>
       </c>
       <c r="H61" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I61" s="91"/>
       <c r="J61" s="90"/>
@@ -41561,13 +41558,13 @@
         <v>[Authentication-52]</v>
       </c>
       <c r="B62" s="107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D62" s="107" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E62" s="107"/>
       <c r="F62" s="107" t="s">
@@ -41577,7 +41574,7 @@
         <v>24</v>
       </c>
       <c r="H62" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I62" s="91"/>
       <c r="J62" s="90"/>
@@ -41588,13 +41585,13 @@
         <v>[Authentication-53]</v>
       </c>
       <c r="B63" s="218" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C63" s="95" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D63" s="219" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E63" s="107"/>
       <c r="F63" s="107" t="s">
@@ -41604,7 +41601,7 @@
         <v>24</v>
       </c>
       <c r="H63" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I63" s="91"/>
       <c r="J63" s="90"/>
@@ -41615,13 +41612,13 @@
         <v>[Authentication-54]</v>
       </c>
       <c r="B64" s="222" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C64" s="223" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D64" s="224" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E64" s="158"/>
       <c r="F64" s="107" t="s">
@@ -41631,7 +41628,7 @@
         <v>24</v>
       </c>
       <c r="H64" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I64" s="91"/>
       <c r="J64" s="90"/>
@@ -41642,13 +41639,13 @@
         <v>[Authentication-55]</v>
       </c>
       <c r="B65" s="225" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" s="226" t="s">
+        <v>762</v>
+      </c>
+      <c r="D65" s="227" t="s">
         <v>431</v>
-      </c>
-      <c r="C65" s="226" t="s">
-        <v>763</v>
-      </c>
-      <c r="D65" s="227" t="s">
-        <v>432</v>
       </c>
       <c r="E65" s="158"/>
       <c r="F65" s="107" t="s">
@@ -41658,19 +41655,19 @@
         <v>24</v>
       </c>
       <c r="H65" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I65" s="91"/>
       <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="194"/>
-      <c r="B66" s="285" t="s">
-        <v>804</v>
-      </c>
-      <c r="C66" s="286"/>
-      <c r="D66" s="286"/>
-      <c r="E66" s="286"/>
+      <c r="B66" s="288" t="s">
+        <v>803</v>
+      </c>
+      <c r="C66" s="289"/>
+      <c r="D66" s="289"/>
+      <c r="E66" s="289"/>
       <c r="F66" s="228"/>
       <c r="G66" s="228"/>
       <c r="H66" s="228"/>
@@ -41683,13 +41680,13 @@
         <v>[Authentication-57]</v>
       </c>
       <c r="B67" s="220" t="s">
+        <v>482</v>
+      </c>
+      <c r="C67" s="220" t="s">
+        <v>763</v>
+      </c>
+      <c r="D67" s="220" t="s">
         <v>483</v>
-      </c>
-      <c r="C67" s="220" t="s">
-        <v>764</v>
-      </c>
-      <c r="D67" s="220" t="s">
-        <v>484</v>
       </c>
       <c r="E67" s="140"/>
       <c r="F67" s="97" t="s">
@@ -41699,7 +41696,7 @@
         <v>22</v>
       </c>
       <c r="H67" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I67" s="140"/>
     </row>
@@ -41709,13 +41706,13 @@
         <v>[Authentication-58]</v>
       </c>
       <c r="B68" s="220" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C68" s="220" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D68" s="220" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E68" s="140"/>
       <c r="F68" s="97" t="s">
@@ -41725,7 +41722,7 @@
         <v>22</v>
       </c>
       <c r="H68" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I68" s="140"/>
     </row>
@@ -41735,13 +41732,13 @@
         <v>[Authentication-59]</v>
       </c>
       <c r="B69" s="220" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C69" s="220" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D69" s="220" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E69" s="140"/>
       <c r="F69" s="107" t="s">
@@ -41751,7 +41748,7 @@
         <v>24</v>
       </c>
       <c r="H69" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I69" s="140"/>
     </row>
@@ -41761,13 +41758,13 @@
         <v>[Authentication-60]</v>
       </c>
       <c r="B70" s="107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C70" s="220" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D70" s="220" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E70" s="140"/>
       <c r="F70" s="97" t="s">
@@ -41777,7 +41774,7 @@
         <v>22</v>
       </c>
       <c r="H70" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I70" s="140"/>
     </row>
@@ -41787,13 +41784,13 @@
         <v>[Authentication-61]</v>
       </c>
       <c r="B71" s="107" t="s">
+        <v>486</v>
+      </c>
+      <c r="C71" s="220" t="s">
+        <v>765</v>
+      </c>
+      <c r="D71" s="220" t="s">
         <v>487</v>
-      </c>
-      <c r="C71" s="220" t="s">
-        <v>766</v>
-      </c>
-      <c r="D71" s="220" t="s">
-        <v>488</v>
       </c>
       <c r="E71" s="140"/>
       <c r="F71" s="107" t="s">
@@ -41803,7 +41800,7 @@
         <v>24</v>
       </c>
       <c r="H71" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I71" s="140"/>
     </row>
@@ -41813,13 +41810,13 @@
         <v>[Authentication-62]</v>
       </c>
       <c r="B72" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="220" t="s">
+        <v>766</v>
+      </c>
+      <c r="D72" s="220" t="s">
         <v>489</v>
-      </c>
-      <c r="C72" s="220" t="s">
-        <v>767</v>
-      </c>
-      <c r="D72" s="220" t="s">
-        <v>490</v>
       </c>
       <c r="E72" s="140"/>
       <c r="F72" s="107" t="s">
@@ -41829,7 +41826,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I72" s="140"/>
     </row>
@@ -41839,13 +41836,13 @@
         <v>[Authentication-63]</v>
       </c>
       <c r="B73" s="107" t="s">
+        <v>490</v>
+      </c>
+      <c r="C73" s="220" t="s">
+        <v>767</v>
+      </c>
+      <c r="D73" s="220" t="s">
         <v>491</v>
-      </c>
-      <c r="C73" s="220" t="s">
-        <v>768</v>
-      </c>
-      <c r="D73" s="220" t="s">
-        <v>492</v>
       </c>
       <c r="E73" s="140"/>
       <c r="F73" s="107" t="s">
@@ -41855,7 +41852,7 @@
         <v>24</v>
       </c>
       <c r="H73" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I73" s="140"/>
     </row>
@@ -41865,13 +41862,13 @@
         <v>[Authentication-64]</v>
       </c>
       <c r="B74" s="107" t="s">
+        <v>492</v>
+      </c>
+      <c r="C74" s="220" t="s">
+        <v>768</v>
+      </c>
+      <c r="D74" s="220" t="s">
         <v>493</v>
-      </c>
-      <c r="C74" s="220" t="s">
-        <v>769</v>
-      </c>
-      <c r="D74" s="220" t="s">
-        <v>494</v>
       </c>
       <c r="E74" s="140"/>
       <c r="F74" s="107" t="s">
@@ -41881,7 +41878,7 @@
         <v>24</v>
       </c>
       <c r="H74" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I74" s="140"/>
     </row>
@@ -41891,13 +41888,13 @@
         <v>[Authentication-65]</v>
       </c>
       <c r="B75" s="107" t="s">
+        <v>494</v>
+      </c>
+      <c r="C75" s="220" t="s">
+        <v>769</v>
+      </c>
+      <c r="D75" s="220" t="s">
         <v>495</v>
-      </c>
-      <c r="C75" s="220" t="s">
-        <v>770</v>
-      </c>
-      <c r="D75" s="220" t="s">
-        <v>496</v>
       </c>
       <c r="E75" s="140"/>
       <c r="F75" s="107" t="s">
@@ -41907,7 +41904,7 @@
         <v>24</v>
       </c>
       <c r="H75" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I75" s="140"/>
     </row>
@@ -41917,13 +41914,13 @@
         <v>[Authentication-66]</v>
       </c>
       <c r="B76" s="107" t="s">
+        <v>496</v>
+      </c>
+      <c r="C76" s="220" t="s">
+        <v>770</v>
+      </c>
+      <c r="D76" s="220" t="s">
         <v>497</v>
-      </c>
-      <c r="C76" s="220" t="s">
-        <v>771</v>
-      </c>
-      <c r="D76" s="220" t="s">
-        <v>498</v>
       </c>
       <c r="E76" s="140"/>
       <c r="F76" s="107" t="s">
@@ -41933,7 +41930,7 @@
         <v>24</v>
       </c>
       <c r="H76" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I76" s="140"/>
     </row>
@@ -41943,13 +41940,13 @@
         <v>[Authentication-67]</v>
       </c>
       <c r="B77" s="107" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C77" s="220" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D77" s="220" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E77" s="140"/>
       <c r="F77" s="107" t="s">
@@ -41959,7 +41956,7 @@
         <v>24</v>
       </c>
       <c r="H77" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I77" s="140"/>
     </row>
@@ -41969,13 +41966,13 @@
         <v>[Authentication-68]</v>
       </c>
       <c r="B78" s="107" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C78" s="220" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D78" s="220" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E78" s="140"/>
       <c r="F78" s="107" t="s">
@@ -41985,7 +41982,7 @@
         <v>24</v>
       </c>
       <c r="H78" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I78" s="140"/>
     </row>
@@ -41995,13 +41992,13 @@
         <v>[Authentication-69]</v>
       </c>
       <c r="B79" s="107" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C79" s="220" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D79" s="220" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E79" s="140"/>
       <c r="F79" s="107" t="s">
@@ -42011,7 +42008,7 @@
         <v>24</v>
       </c>
       <c r="H79" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I79" s="140"/>
     </row>
@@ -42021,13 +42018,13 @@
         <v>[Authentication-70]</v>
       </c>
       <c r="B80" s="107" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C80" s="220" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D80" s="220" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E80" s="140"/>
       <c r="F80" s="107" t="s">
@@ -42037,7 +42034,7 @@
         <v>24</v>
       </c>
       <c r="H80" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I80" s="140"/>
     </row>
@@ -42047,13 +42044,13 @@
         <v>[Authentication-71]</v>
       </c>
       <c r="B81" s="107" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C81" s="220" t="s">
+        <v>837</v>
+      </c>
+      <c r="D81" s="220" t="s">
         <v>838</v>
-      </c>
-      <c r="D81" s="220" t="s">
-        <v>839</v>
       </c>
       <c r="E81" s="140"/>
       <c r="F81" s="107" t="s">
@@ -42063,7 +42060,7 @@
         <v>24</v>
       </c>
       <c r="H81" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I81" s="140"/>
     </row>
@@ -42073,13 +42070,13 @@
         <v>[Authentication-72]</v>
       </c>
       <c r="B82" s="107" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C82" s="220" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D82" s="220" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E82" s="140"/>
       <c r="F82" s="107" t="s">
@@ -42089,7 +42086,7 @@
         <v>24</v>
       </c>
       <c r="H82" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I82" s="140"/>
     </row>
@@ -42099,13 +42096,13 @@
         <v>[Authentication-73]</v>
       </c>
       <c r="B83" s="107" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C83" s="220" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D83" s="220" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E83" s="140"/>
       <c r="F83" s="107" t="s">
@@ -42115,7 +42112,7 @@
         <v>24</v>
       </c>
       <c r="H83" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I83" s="140"/>
     </row>
@@ -42125,13 +42122,13 @@
         <v>[Authentication-74]</v>
       </c>
       <c r="B84" s="107" t="s">
+        <v>505</v>
+      </c>
+      <c r="C84" s="220" t="s">
+        <v>777</v>
+      </c>
+      <c r="D84" s="220" t="s">
         <v>506</v>
-      </c>
-      <c r="C84" s="220" t="s">
-        <v>778</v>
-      </c>
-      <c r="D84" s="220" t="s">
-        <v>507</v>
       </c>
       <c r="E84" s="140"/>
       <c r="F84" s="107" t="s">
@@ -42141,7 +42138,7 @@
         <v>24</v>
       </c>
       <c r="H84" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I84" s="140"/>
     </row>
@@ -42151,13 +42148,13 @@
         <v>[Authentication-75]</v>
       </c>
       <c r="B85" s="95" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C85" s="221" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D85" s="220" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E85" s="140"/>
       <c r="F85" s="107" t="s">
@@ -42167,7 +42164,7 @@
         <v>24</v>
       </c>
       <c r="H85" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I85" s="140"/>
     </row>
@@ -42177,13 +42174,13 @@
         <v>[Authentication-76]</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C86" s="220" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D86" s="220" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E86" s="140"/>
       <c r="F86" s="107" t="s">
@@ -42193,7 +42190,7 @@
         <v>24</v>
       </c>
       <c r="H86" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I86" s="140"/>
     </row>
@@ -42203,13 +42200,13 @@
         <v>[Authentication-77]</v>
       </c>
       <c r="B87" s="97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C87" s="220" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D87" s="220" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E87" s="140"/>
       <c r="F87" s="107" t="s">
@@ -42219,7 +42216,7 @@
         <v>24</v>
       </c>
       <c r="H87" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I87" s="140"/>
     </row>
